--- a/work/N3_Kanji.xlsx
+++ b/work/N3_Kanji.xlsx
@@ -60692,8 +60692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A355" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -72432,8 +72432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J915"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="G368" sqref="G368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/work/N3_Kanji.xlsx
+++ b/work/N3_Kanji.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N3'!$A$1:$J$552</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -60218,22 +60218,22 @@
     <t>,jlptkanjiN3,lesson18,</t>
   </si>
   <si>
-    <t>,jlptkanjiN3,lesson1,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>両</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>,jlptkanjiN3,lesson18,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>,jlptkanjiN3,lesson1,</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -60273,6 +60273,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60446,7 +60448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -60478,10 +60480,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -60513,7 +60514,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -60689,11 +60689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J552"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -60742,7 +60742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25">
+    <row r="2" spans="1:10" ht="18.75">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -60766,13 +60766,13 @@
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>1594</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.5">
+      <c r="A3" s="16" t="s">
         <v>1592</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="57">
-      <c r="A3" s="16" t="s">
-        <v>1593</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>385</v>
@@ -60798,7 +60798,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="28.5">
+    <row r="4" spans="1:10" ht="27">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -60826,7 +60826,7 @@
       </c>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="57">
+    <row r="5" spans="1:10" ht="54">
       <c r="A5" s="15" t="s">
         <v>24</v>
       </c>
@@ -60854,7 +60854,7 @@
       </c>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="71.25">
+    <row r="6" spans="1:10" ht="67.5">
       <c r="A6" s="15" t="s">
         <v>25</v>
       </c>
@@ -60882,7 +60882,7 @@
       </c>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="71.25">
+    <row r="7" spans="1:10" ht="67.5">
       <c r="A7" s="15" t="s">
         <v>26</v>
       </c>
@@ -60910,7 +60910,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="28.5">
+    <row r="8" spans="1:10" ht="27">
       <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
@@ -60938,7 +60938,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="42.75">
+    <row r="9" spans="1:10" ht="40.5">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
@@ -60966,7 +60966,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="28.5">
+    <row r="10" spans="1:10" ht="27">
       <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
@@ -60992,7 +60992,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="42.75">
+    <row r="11" spans="1:10" ht="27">
       <c r="A11" s="15" t="s">
         <v>30</v>
       </c>
@@ -61020,7 +61020,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="57">
+    <row r="12" spans="1:10" ht="54">
       <c r="A12" s="15" t="s">
         <v>31</v>
       </c>
@@ -61048,7 +61048,7 @@
       </c>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="57">
+    <row r="13" spans="1:10" ht="54">
       <c r="A13" s="15" t="s">
         <v>32</v>
       </c>
@@ -61076,7 +61076,7 @@
       </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="57">
+    <row r="14" spans="1:10" ht="54">
       <c r="A14" s="15" t="s">
         <v>33</v>
       </c>
@@ -61104,7 +61104,7 @@
       </c>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="28.5">
+    <row r="15" spans="1:10" ht="27">
       <c r="A15" s="15" t="s">
         <v>34</v>
       </c>
@@ -61132,7 +61132,7 @@
       </c>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="57">
+    <row r="16" spans="1:10" ht="54">
       <c r="A16" s="15" t="s">
         <v>35</v>
       </c>
@@ -61158,7 +61158,7 @@
       </c>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="20.25">
+    <row r="17" spans="1:10" ht="18.75">
       <c r="A17" s="15" t="s">
         <v>36</v>
       </c>
@@ -61186,7 +61186,7 @@
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="28.5">
+    <row r="18" spans="1:10" ht="27">
       <c r="A18" s="15" t="s">
         <v>37</v>
       </c>
@@ -61212,7 +61212,7 @@
       </c>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="42.75">
+    <row r="19" spans="1:10" ht="27">
       <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
@@ -61240,7 +61240,7 @@
       </c>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="57">
+    <row r="20" spans="1:10" ht="54">
       <c r="A20" s="15" t="s">
         <v>39</v>
       </c>
@@ -61268,7 +61268,7 @@
       </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" ht="85.5">
+    <row r="21" spans="1:10" ht="81">
       <c r="A21" s="15" t="s">
         <v>40</v>
       </c>
@@ -61296,7 +61296,7 @@
       </c>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" ht="42.75">
+    <row r="22" spans="1:10" ht="40.5">
       <c r="A22" s="15" t="s">
         <v>41</v>
       </c>
@@ -61324,7 +61324,7 @@
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="20.25">
+    <row r="23" spans="1:10" ht="18.75">
       <c r="A23" s="15" t="s">
         <v>42</v>
       </c>
@@ -61350,7 +61350,7 @@
       </c>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" ht="20.25">
+    <row r="24" spans="1:10" ht="18.75">
       <c r="A24" s="15" t="s">
         <v>43</v>
       </c>
@@ -61378,7 +61378,7 @@
       </c>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" ht="42.75">
+    <row r="25" spans="1:10" ht="27">
       <c r="A25" s="15" t="s">
         <v>44</v>
       </c>
@@ -61406,7 +61406,7 @@
       </c>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" ht="57">
+    <row r="26" spans="1:10" ht="54">
       <c r="A26" s="15" t="s">
         <v>45</v>
       </c>
@@ -61434,7 +61434,7 @@
       </c>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" ht="85.5">
+    <row r="27" spans="1:10" ht="81">
       <c r="A27" s="15" t="s">
         <v>46</v>
       </c>
@@ -61462,7 +61462,7 @@
       </c>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" ht="71.25">
+    <row r="28" spans="1:10" ht="54">
       <c r="A28" s="15" t="s">
         <v>47</v>
       </c>
@@ -61490,7 +61490,7 @@
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="42.75">
+    <row r="29" spans="1:10" ht="40.5">
       <c r="A29" s="15" t="s">
         <v>48</v>
       </c>
@@ -61518,7 +61518,7 @@
       </c>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" ht="28.5">
+    <row r="30" spans="1:10" ht="27">
       <c r="A30" s="15" t="s">
         <v>49</v>
       </c>
@@ -61546,7 +61546,7 @@
       </c>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" ht="42.75">
+    <row r="31" spans="1:10" ht="40.5">
       <c r="A31" s="15" t="s">
         <v>50</v>
       </c>
@@ -61572,7 +61572,7 @@
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="57">
+    <row r="32" spans="1:10" ht="54">
       <c r="A32" s="15" t="s">
         <v>51</v>
       </c>
@@ -61600,7 +61600,7 @@
       </c>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" ht="57">
+    <row r="33" spans="1:10" ht="54">
       <c r="A33" s="15" t="s">
         <v>52</v>
       </c>
@@ -61628,7 +61628,7 @@
       </c>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25">
+    <row r="34" spans="1:10" ht="18.75">
       <c r="A34" s="15" t="s">
         <v>53</v>
       </c>
@@ -61656,7 +61656,7 @@
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" ht="71.25">
+    <row r="35" spans="1:10" ht="67.5">
       <c r="A35" s="15" t="s">
         <v>54</v>
       </c>
@@ -61682,7 +61682,7 @@
       </c>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" ht="57">
+    <row r="36" spans="1:10" ht="40.5">
       <c r="A36" s="15" t="s">
         <v>55</v>
       </c>
@@ -61710,7 +61710,7 @@
       </c>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="57">
+    <row r="37" spans="1:10" ht="54">
       <c r="A37" s="15" t="s">
         <v>56</v>
       </c>
@@ -61738,7 +61738,7 @@
       </c>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25">
+    <row r="38" spans="1:10" ht="18.75">
       <c r="A38" s="15" t="s">
         <v>57</v>
       </c>
@@ -61766,7 +61766,7 @@
       </c>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" ht="28.5">
+    <row r="39" spans="1:10" ht="18.75">
       <c r="A39" s="15" t="s">
         <v>58</v>
       </c>
@@ -61792,7 +61792,7 @@
       </c>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" ht="20.25">
+    <row r="40" spans="1:10" ht="18.75">
       <c r="A40" s="15" t="s">
         <v>59</v>
       </c>
@@ -61820,7 +61820,7 @@
       </c>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="71.25">
+    <row r="41" spans="1:10" ht="67.5">
       <c r="A41" s="15" t="s">
         <v>60</v>
       </c>
@@ -61848,7 +61848,7 @@
       </c>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" ht="71.25">
+    <row r="42" spans="1:10" ht="54">
       <c r="A42" s="15" t="s">
         <v>61</v>
       </c>
@@ -61876,7 +61876,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" ht="20.25">
+    <row r="43" spans="1:10" ht="18.75">
       <c r="A43" s="15" t="s">
         <v>62</v>
       </c>
@@ -61904,7 +61904,7 @@
       </c>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:10" ht="85.5">
+    <row r="44" spans="1:10" ht="81">
       <c r="A44" s="15" t="s">
         <v>63</v>
       </c>
@@ -61932,7 +61932,7 @@
       </c>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" ht="28.5">
+    <row r="45" spans="1:10" ht="27">
       <c r="A45" s="15" t="s">
         <v>64</v>
       </c>
@@ -61960,7 +61960,7 @@
       </c>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" ht="57">
+    <row r="46" spans="1:10" ht="54">
       <c r="A46" s="15" t="s">
         <v>65</v>
       </c>
@@ -61988,7 +61988,7 @@
       </c>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" ht="57">
+    <row r="47" spans="1:10" ht="40.5">
       <c r="A47" s="15" t="s">
         <v>66</v>
       </c>
@@ -62016,7 +62016,7 @@
       </c>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" ht="28.5">
+    <row r="48" spans="1:10" ht="27">
       <c r="A48" s="15" t="s">
         <v>67</v>
       </c>
@@ -62044,7 +62044,7 @@
       </c>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" ht="28.5">
+    <row r="49" spans="1:10" ht="27">
       <c r="A49" s="15" t="s">
         <v>68</v>
       </c>
@@ -62072,7 +62072,7 @@
       </c>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" ht="57">
+    <row r="50" spans="1:10" ht="54">
       <c r="A50" s="15" t="s">
         <v>69</v>
       </c>
@@ -62098,7 +62098,7 @@
       </c>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" ht="57">
+    <row r="51" spans="1:10" ht="54">
       <c r="A51" s="15" t="s">
         <v>70</v>
       </c>
@@ -62126,7 +62126,7 @@
       </c>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" ht="42.75">
+    <row r="52" spans="1:10" ht="40.5">
       <c r="A52" s="15" t="s">
         <v>71</v>
       </c>
@@ -62152,7 +62152,7 @@
       </c>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" ht="42.75">
+    <row r="53" spans="1:10" ht="40.5">
       <c r="A53" s="15" t="s">
         <v>72</v>
       </c>
@@ -62180,7 +62180,7 @@
       </c>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" ht="71.25">
+    <row r="54" spans="1:10" ht="67.5">
       <c r="A54" s="15" t="s">
         <v>73</v>
       </c>
@@ -62208,7 +62208,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" ht="42.75">
+    <row r="55" spans="1:10" ht="40.5">
       <c r="A55" s="15" t="s">
         <v>74</v>
       </c>
@@ -62236,7 +62236,7 @@
       </c>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" ht="57">
+    <row r="56" spans="1:10" ht="40.5">
       <c r="A56" s="15" t="s">
         <v>75</v>
       </c>
@@ -62264,7 +62264,7 @@
       </c>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" ht="57">
+    <row r="57" spans="1:10" ht="40.5">
       <c r="A57" s="15" t="s">
         <v>76</v>
       </c>
@@ -62292,7 +62292,7 @@
       </c>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" ht="71.25">
+    <row r="58" spans="1:10" ht="67.5">
       <c r="A58" s="15" t="s">
         <v>77</v>
       </c>
@@ -62320,7 +62320,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" ht="28.5">
+    <row r="59" spans="1:10" ht="27">
       <c r="A59" s="15" t="s">
         <v>78</v>
       </c>
@@ -62346,7 +62346,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" ht="42.75">
+    <row r="60" spans="1:10" ht="40.5">
       <c r="A60" s="15" t="s">
         <v>79</v>
       </c>
@@ -62374,7 +62374,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" ht="42.75">
+    <row r="61" spans="1:10" ht="40.5">
       <c r="A61" s="15" t="s">
         <v>80</v>
       </c>
@@ -62402,7 +62402,7 @@
       </c>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="42.75">
+    <row r="62" spans="1:10" ht="40.5">
       <c r="A62" s="15" t="s">
         <v>81</v>
       </c>
@@ -62430,7 +62430,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" ht="42.75">
+    <row r="63" spans="1:10" ht="40.5">
       <c r="A63" s="15" t="s">
         <v>82</v>
       </c>
@@ -62458,7 +62458,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" ht="28.5">
+    <row r="64" spans="1:10" ht="27">
       <c r="A64" s="15" t="s">
         <v>83</v>
       </c>
@@ -62486,7 +62486,7 @@
       </c>
       <c r="J64" s="1"/>
     </row>
-    <row r="65" spans="1:10" ht="57">
+    <row r="65" spans="1:10" ht="54">
       <c r="A65" s="15" t="s">
         <v>84</v>
       </c>
@@ -62514,7 +62514,7 @@
       </c>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" ht="42.75">
+    <row r="66" spans="1:10" ht="40.5">
       <c r="A66" s="15" t="s">
         <v>85</v>
       </c>
@@ -62542,7 +62542,7 @@
       </c>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="42.75">
+    <row r="67" spans="1:10" ht="40.5">
       <c r="A67" s="15" t="s">
         <v>86</v>
       </c>
@@ -62570,7 +62570,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="57">
+    <row r="68" spans="1:10" ht="54">
       <c r="A68" s="15" t="s">
         <v>87</v>
       </c>
@@ -62598,7 +62598,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" ht="28.5">
+    <row r="69" spans="1:10" ht="27">
       <c r="A69" s="15" t="s">
         <v>88</v>
       </c>
@@ -62626,7 +62626,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" ht="71.25">
+    <row r="70" spans="1:10" ht="54">
       <c r="A70" s="15" t="s">
         <v>89</v>
       </c>
@@ -62654,7 +62654,7 @@
       </c>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" ht="71.25">
+    <row r="71" spans="1:10" ht="67.5">
       <c r="A71" s="15" t="s">
         <v>90</v>
       </c>
@@ -62682,7 +62682,7 @@
       </c>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" ht="42.75">
+    <row r="72" spans="1:10" ht="40.5">
       <c r="A72" s="15" t="s">
         <v>91</v>
       </c>
@@ -62710,7 +62710,7 @@
       </c>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" ht="42.75">
+    <row r="73" spans="1:10" ht="40.5">
       <c r="A73" s="15" t="s">
         <v>92</v>
       </c>
@@ -62738,7 +62738,7 @@
       </c>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="99.75">
+    <row r="74" spans="1:10" ht="94.5">
       <c r="A74" s="15" t="s">
         <v>93</v>
       </c>
@@ -62766,7 +62766,7 @@
       </c>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="57">
+    <row r="75" spans="1:10" ht="54">
       <c r="A75" s="15" t="s">
         <v>94</v>
       </c>
@@ -62794,7 +62794,7 @@
       </c>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" ht="20.25">
+    <row r="76" spans="1:10" ht="18.75">
       <c r="A76" s="15" t="s">
         <v>95</v>
       </c>
@@ -62820,7 +62820,7 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" ht="42.75">
+    <row r="77" spans="1:10" ht="40.5">
       <c r="A77" s="15" t="s">
         <v>96</v>
       </c>
@@ -62848,7 +62848,7 @@
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" ht="42.75">
+    <row r="78" spans="1:10" ht="27">
       <c r="A78" s="15" t="s">
         <v>97</v>
       </c>
@@ -62876,7 +62876,7 @@
       </c>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" ht="57">
+    <row r="79" spans="1:10" ht="54">
       <c r="A79" s="15" t="s">
         <v>98</v>
       </c>
@@ -62902,7 +62902,7 @@
       </c>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" ht="57">
+    <row r="80" spans="1:10" ht="54">
       <c r="A80" s="15" t="s">
         <v>99</v>
       </c>
@@ -62930,7 +62930,7 @@
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" ht="42.75">
+    <row r="81" spans="1:10" ht="40.5">
       <c r="A81" s="15" t="s">
         <v>100</v>
       </c>
@@ -62958,7 +62958,7 @@
       </c>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" ht="20.25">
+    <row r="82" spans="1:10" ht="18.75">
       <c r="A82" s="15" t="s">
         <v>101</v>
       </c>
@@ -62984,7 +62984,7 @@
       </c>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" ht="71.25">
+    <row r="83" spans="1:10" ht="67.5">
       <c r="A83" s="15" t="s">
         <v>102</v>
       </c>
@@ -63012,7 +63012,7 @@
       </c>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" ht="42.75">
+    <row r="84" spans="1:10" ht="40.5">
       <c r="A84" s="15" t="s">
         <v>103</v>
       </c>
@@ -63040,7 +63040,7 @@
       </c>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="42.75">
+    <row r="85" spans="1:10" ht="40.5">
       <c r="A85" s="15" t="s">
         <v>104</v>
       </c>
@@ -63066,7 +63066,7 @@
       </c>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="20.25">
+    <row r="86" spans="1:10" ht="18.75">
       <c r="A86" s="15" t="s">
         <v>105</v>
       </c>
@@ -63094,7 +63094,7 @@
       </c>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="1:10" ht="57">
+    <row r="87" spans="1:10" ht="54">
       <c r="A87" s="15" t="s">
         <v>106</v>
       </c>
@@ -63122,7 +63122,7 @@
       </c>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="1:10" ht="85.5">
+    <row r="88" spans="1:10" ht="81">
       <c r="A88" s="15" t="s">
         <v>107</v>
       </c>
@@ -63148,7 +63148,7 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="1:10" ht="57">
+    <row r="89" spans="1:10" ht="40.5">
       <c r="A89" s="15" t="s">
         <v>108</v>
       </c>
@@ -63174,7 +63174,7 @@
       </c>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" ht="85.5">
+    <row r="90" spans="1:10" ht="81">
       <c r="A90" s="15" t="s">
         <v>109</v>
       </c>
@@ -63202,7 +63202,7 @@
       </c>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" ht="57">
+    <row r="91" spans="1:10" ht="54">
       <c r="A91" s="15" t="s">
         <v>110</v>
       </c>
@@ -63230,7 +63230,7 @@
       </c>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="85.5">
+    <row r="92" spans="1:10" ht="81">
       <c r="A92" s="15" t="s">
         <v>111</v>
       </c>
@@ -63256,7 +63256,7 @@
       </c>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="20.25">
+    <row r="93" spans="1:10" ht="18.75">
       <c r="A93" s="15" t="s">
         <v>112</v>
       </c>
@@ -63282,7 +63282,7 @@
       </c>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" ht="57">
+    <row r="94" spans="1:10" ht="54">
       <c r="A94" s="15" t="s">
         <v>113</v>
       </c>
@@ -63308,7 +63308,7 @@
       </c>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" ht="57">
+    <row r="95" spans="1:10" ht="54">
       <c r="A95" s="15" t="s">
         <v>114</v>
       </c>
@@ -63336,7 +63336,7 @@
       </c>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" ht="71.25">
+    <row r="96" spans="1:10" ht="54">
       <c r="A96" s="15" t="s">
         <v>115</v>
       </c>
@@ -63362,7 +63362,7 @@
       </c>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="1:10" ht="20.25">
+    <row r="97" spans="1:10" ht="18.75">
       <c r="A97" s="15" t="s">
         <v>116</v>
       </c>
@@ -63390,7 +63390,7 @@
       </c>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="1:10" ht="57">
+    <row r="98" spans="1:10" ht="54">
       <c r="A98" s="15" t="s">
         <v>117</v>
       </c>
@@ -63418,7 +63418,7 @@
       </c>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" ht="42.75">
+    <row r="99" spans="1:10" ht="40.5">
       <c r="A99" s="15" t="s">
         <v>118</v>
       </c>
@@ -63446,7 +63446,7 @@
       </c>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" ht="20.25">
+    <row r="100" spans="1:10" ht="18.75">
       <c r="A100" s="15" t="s">
         <v>119</v>
       </c>
@@ -63472,7 +63472,7 @@
       </c>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="42.75">
+    <row r="101" spans="1:10" ht="40.5">
       <c r="A101" s="15" t="s">
         <v>120</v>
       </c>
@@ -63500,7 +63500,7 @@
       </c>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="20.25">
+    <row r="102" spans="1:10" ht="18.75">
       <c r="A102" s="15" t="s">
         <v>121</v>
       </c>
@@ -63528,7 +63528,7 @@
       </c>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="1:10" ht="20.25">
+    <row r="103" spans="1:10" ht="18.75">
       <c r="A103" s="15" t="s">
         <v>122</v>
       </c>
@@ -63554,7 +63554,7 @@
       </c>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="1:10" ht="20.25">
+    <row r="104" spans="1:10" ht="18.75">
       <c r="A104" s="15" t="s">
         <v>123</v>
       </c>
@@ -63580,7 +63580,7 @@
       </c>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="1:10" ht="85.5">
+    <row r="105" spans="1:10" ht="81">
       <c r="A105" s="15" t="s">
         <v>124</v>
       </c>
@@ -63608,7 +63608,7 @@
       </c>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="1:10" ht="20.25">
+    <row r="106" spans="1:10" ht="18.75">
       <c r="A106" s="15" t="s">
         <v>125</v>
       </c>
@@ -63634,7 +63634,7 @@
       </c>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="1:10" ht="71.25">
+    <row r="107" spans="1:10" ht="67.5">
       <c r="A107" s="15" t="s">
         <v>126</v>
       </c>
@@ -63662,7 +63662,7 @@
       </c>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="57">
+    <row r="108" spans="1:10" ht="54">
       <c r="A108" s="15" t="s">
         <v>127</v>
       </c>
@@ -63690,7 +63690,7 @@
       </c>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="20.25">
+    <row r="109" spans="1:10" ht="18.75">
       <c r="A109" s="15" t="s">
         <v>128</v>
       </c>
@@ -63718,7 +63718,7 @@
       </c>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="1:10" ht="57">
+    <row r="110" spans="1:10" ht="54">
       <c r="A110" s="15" t="s">
         <v>129</v>
       </c>
@@ -63746,7 +63746,7 @@
       </c>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="1:10" ht="42.75">
+    <row r="111" spans="1:10" ht="40.5">
       <c r="A111" s="15" t="s">
         <v>130</v>
       </c>
@@ -63774,7 +63774,7 @@
       </c>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="1:10" ht="28.5">
+    <row r="112" spans="1:10" ht="27">
       <c r="A112" s="15" t="s">
         <v>131</v>
       </c>
@@ -63802,7 +63802,7 @@
       </c>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" spans="1:10" ht="28.5">
+    <row r="113" spans="1:10" ht="27">
       <c r="A113" s="15" t="s">
         <v>132</v>
       </c>
@@ -63828,7 +63828,7 @@
       </c>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" spans="1:10" ht="42.75">
+    <row r="114" spans="1:10" ht="40.5">
       <c r="A114" s="15" t="s">
         <v>133</v>
       </c>
@@ -63856,7 +63856,7 @@
       </c>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" spans="1:10" ht="28.5">
+    <row r="115" spans="1:10" ht="27">
       <c r="A115" s="15" t="s">
         <v>134</v>
       </c>
@@ -63884,7 +63884,7 @@
       </c>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" spans="1:10" ht="20.25">
+    <row r="116" spans="1:10" ht="18.75">
       <c r="A116" s="15" t="s">
         <v>135</v>
       </c>
@@ -63910,7 +63910,7 @@
       </c>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="57">
+    <row r="117" spans="1:10" ht="54">
       <c r="A117" s="15" t="s">
         <v>136</v>
       </c>
@@ -63936,7 +63936,7 @@
       </c>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="20.25">
+    <row r="118" spans="1:10" ht="18.75">
       <c r="A118" s="15" t="s">
         <v>137</v>
       </c>
@@ -63964,7 +63964,7 @@
       </c>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" spans="1:10" ht="71.25">
+    <row r="119" spans="1:10" ht="67.5">
       <c r="A119" s="15" t="s">
         <v>138</v>
       </c>
@@ -63992,7 +63992,7 @@
       </c>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" spans="1:10" ht="71.25">
+    <row r="120" spans="1:10" ht="67.5">
       <c r="A120" s="15" t="s">
         <v>139</v>
       </c>
@@ -64020,7 +64020,7 @@
       </c>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="1:10" ht="71.25">
+    <row r="121" spans="1:10" ht="54">
       <c r="A121" s="15" t="s">
         <v>140</v>
       </c>
@@ -64046,7 +64046,7 @@
       </c>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="1:10" ht="28.5">
+    <row r="122" spans="1:10" ht="27">
       <c r="A122" s="15" t="s">
         <v>141</v>
       </c>
@@ -64074,7 +64074,7 @@
       </c>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="1:10" ht="20.25">
+    <row r="123" spans="1:10" ht="18.75">
       <c r="A123" s="15" t="s">
         <v>142</v>
       </c>
@@ -64102,7 +64102,7 @@
       </c>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="99.75">
+    <row r="124" spans="1:10" ht="81">
       <c r="A124" s="15" t="s">
         <v>143</v>
       </c>
@@ -64130,7 +64130,7 @@
       </c>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="57">
+    <row r="125" spans="1:10" ht="54">
       <c r="A125" s="15" t="s">
         <v>144</v>
       </c>
@@ -64158,7 +64158,7 @@
       </c>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" spans="1:10" ht="42.75">
+    <row r="126" spans="1:10" ht="40.5">
       <c r="A126" s="15" t="s">
         <v>145</v>
       </c>
@@ -64184,7 +64184,7 @@
       </c>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" spans="1:10" ht="42.75">
+    <row r="127" spans="1:10" ht="40.5">
       <c r="A127" s="15" t="s">
         <v>146</v>
       </c>
@@ -64212,7 +64212,7 @@
       </c>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="1:10" ht="57">
+    <row r="128" spans="1:10" ht="54">
       <c r="A128" s="15" t="s">
         <v>147</v>
       </c>
@@ -64240,7 +64240,7 @@
       </c>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" spans="1:10" ht="85.5">
+    <row r="129" spans="1:10" ht="81">
       <c r="A129" s="15" t="s">
         <v>148</v>
       </c>
@@ -64268,7 +64268,7 @@
       </c>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" spans="1:10" ht="57">
+    <row r="130" spans="1:10" ht="54">
       <c r="A130" s="15" t="s">
         <v>149</v>
       </c>
@@ -64296,7 +64296,7 @@
       </c>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" spans="1:10" ht="71.25">
+    <row r="131" spans="1:10" ht="67.5">
       <c r="A131" s="15" t="s">
         <v>150</v>
       </c>
@@ -64322,7 +64322,7 @@
       </c>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" spans="1:10" ht="71.25">
+    <row r="132" spans="1:10" ht="67.5">
       <c r="A132" s="15" t="s">
         <v>151</v>
       </c>
@@ -64350,7 +64350,7 @@
       </c>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" spans="1:10" ht="42.75">
+    <row r="133" spans="1:10" ht="40.5">
       <c r="A133" s="15" t="s">
         <v>152</v>
       </c>
@@ -64378,7 +64378,7 @@
       </c>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" spans="1:10" ht="42.75">
+    <row r="134" spans="1:10" ht="40.5">
       <c r="A134" s="15" t="s">
         <v>153</v>
       </c>
@@ -64406,7 +64406,7 @@
       </c>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" spans="1:10" ht="42.75">
+    <row r="135" spans="1:10" ht="40.5">
       <c r="A135" s="15" t="s">
         <v>154</v>
       </c>
@@ -64432,7 +64432,7 @@
       </c>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" spans="1:10" ht="57">
+    <row r="136" spans="1:10" ht="54">
       <c r="A136" s="15" t="s">
         <v>155</v>
       </c>
@@ -64460,7 +64460,7 @@
       </c>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" spans="1:10" ht="57">
+    <row r="137" spans="1:10" ht="54">
       <c r="A137" s="15" t="s">
         <v>156</v>
       </c>
@@ -64488,7 +64488,7 @@
       </c>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" spans="1:10" ht="85.5">
+    <row r="138" spans="1:10" ht="67.5">
       <c r="A138" s="15" t="s">
         <v>157</v>
       </c>
@@ -64516,7 +64516,7 @@
       </c>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" spans="1:10" ht="42.75">
+    <row r="139" spans="1:10" ht="40.5">
       <c r="A139" s="15" t="s">
         <v>158</v>
       </c>
@@ -64544,7 +64544,7 @@
       </c>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" spans="1:10" ht="42.75">
+    <row r="140" spans="1:10" ht="40.5">
       <c r="A140" s="15" t="s">
         <v>159</v>
       </c>
@@ -64572,7 +64572,7 @@
       </c>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" spans="1:10" ht="28.5">
+    <row r="141" spans="1:10" ht="27">
       <c r="A141" s="15" t="s">
         <v>160</v>
       </c>
@@ -64600,7 +64600,7 @@
       </c>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" spans="1:10" ht="71.25">
+    <row r="142" spans="1:10" ht="54">
       <c r="A142" s="15" t="s">
         <v>161</v>
       </c>
@@ -64628,7 +64628,7 @@
       </c>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" spans="1:10" ht="71.25">
+    <row r="143" spans="1:10" ht="54">
       <c r="A143" s="15" t="s">
         <v>162</v>
       </c>
@@ -64656,7 +64656,7 @@
       </c>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" spans="1:10" ht="85.5">
+    <row r="144" spans="1:10" ht="81">
       <c r="A144" s="15" t="s">
         <v>163</v>
       </c>
@@ -64684,7 +64684,7 @@
       </c>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" spans="1:10" ht="42.75">
+    <row r="145" spans="1:10" ht="40.5">
       <c r="A145" s="15" t="s">
         <v>164</v>
       </c>
@@ -64712,7 +64712,7 @@
       </c>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" spans="1:10" ht="57">
+    <row r="146" spans="1:10" ht="54">
       <c r="A146" s="15" t="s">
         <v>165</v>
       </c>
@@ -64740,7 +64740,7 @@
       </c>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" spans="1:10" ht="57">
+    <row r="147" spans="1:10" ht="54">
       <c r="A147" s="15" t="s">
         <v>166</v>
       </c>
@@ -64768,7 +64768,7 @@
       </c>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" spans="1:10" ht="57">
+    <row r="148" spans="1:10" ht="54">
       <c r="A148" s="15" t="s">
         <v>167</v>
       </c>
@@ -64796,7 +64796,7 @@
       </c>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" spans="1:10" ht="20.25">
+    <row r="149" spans="1:10" ht="18.75">
       <c r="A149" s="15" t="s">
         <v>168</v>
       </c>
@@ -64824,7 +64824,7 @@
       </c>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" spans="1:10" ht="42.75">
+    <row r="150" spans="1:10" ht="40.5">
       <c r="A150" s="15" t="s">
         <v>169</v>
       </c>
@@ -64852,7 +64852,7 @@
       </c>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" spans="1:10" ht="28.5">
+    <row r="151" spans="1:10" ht="27">
       <c r="A151" s="15" t="s">
         <v>170</v>
       </c>
@@ -64880,7 +64880,7 @@
       </c>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" spans="1:10" ht="42.75">
+    <row r="152" spans="1:10" ht="40.5">
       <c r="A152" s="15" t="s">
         <v>171</v>
       </c>
@@ -64906,7 +64906,7 @@
       </c>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" spans="1:10" ht="20.25">
+    <row r="153" spans="1:10" ht="18.75">
       <c r="A153" s="15" t="s">
         <v>172</v>
       </c>
@@ -64932,7 +64932,7 @@
       </c>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" spans="1:10" ht="71.25">
+    <row r="154" spans="1:10" ht="67.5">
       <c r="A154" s="15" t="s">
         <v>173</v>
       </c>
@@ -64958,7 +64958,7 @@
       </c>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" spans="1:10" ht="42.75">
+    <row r="155" spans="1:10" ht="40.5">
       <c r="A155" s="15" t="s">
         <v>174</v>
       </c>
@@ -64986,7 +64986,7 @@
       </c>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" spans="1:10" ht="42.75">
+    <row r="156" spans="1:10" ht="27">
       <c r="A156" s="15" t="s">
         <v>175</v>
       </c>
@@ -65014,7 +65014,7 @@
       </c>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" spans="1:10" ht="71.25">
+    <row r="157" spans="1:10" ht="54">
       <c r="A157" s="15" t="s">
         <v>176</v>
       </c>
@@ -65042,7 +65042,7 @@
       </c>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" spans="1:10" ht="42.75">
+    <row r="158" spans="1:10" ht="40.5">
       <c r="A158" s="15" t="s">
         <v>177</v>
       </c>
@@ -65070,7 +65070,7 @@
       </c>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" spans="1:10" ht="57">
+    <row r="159" spans="1:10" ht="54">
       <c r="A159" s="15" t="s">
         <v>178</v>
       </c>
@@ -65096,7 +65096,7 @@
       </c>
       <c r="J159" s="1"/>
     </row>
-    <row r="160" spans="1:10" ht="85.5">
+    <row r="160" spans="1:10" ht="81">
       <c r="A160" s="15" t="s">
         <v>179</v>
       </c>
@@ -65124,7 +65124,7 @@
       </c>
       <c r="J160" s="1"/>
     </row>
-    <row r="161" spans="1:10" ht="42.75">
+    <row r="161" spans="1:10" ht="40.5">
       <c r="A161" s="15" t="s">
         <v>180</v>
       </c>
@@ -65152,7 +65152,7 @@
       </c>
       <c r="J161" s="1"/>
     </row>
-    <row r="162" spans="1:10" ht="42.75">
+    <row r="162" spans="1:10" ht="40.5">
       <c r="A162" s="15" t="s">
         <v>181</v>
       </c>
@@ -65180,7 +65180,7 @@
       </c>
       <c r="J162" s="1"/>
     </row>
-    <row r="163" spans="1:10" ht="57">
+    <row r="163" spans="1:10" ht="40.5">
       <c r="A163" s="15" t="s">
         <v>182</v>
       </c>
@@ -65206,7 +65206,7 @@
       </c>
       <c r="J163" s="1"/>
     </row>
-    <row r="164" spans="1:10" ht="71.25">
+    <row r="164" spans="1:10" ht="54">
       <c r="A164" s="15" t="s">
         <v>183</v>
       </c>
@@ -65234,7 +65234,7 @@
       </c>
       <c r="J164" s="1"/>
     </row>
-    <row r="165" spans="1:10" ht="20.25">
+    <row r="165" spans="1:10" ht="18.75">
       <c r="A165" s="15" t="s">
         <v>184</v>
       </c>
@@ -65262,7 +65262,7 @@
       </c>
       <c r="J165" s="1"/>
     </row>
-    <row r="166" spans="1:10" ht="42.75">
+    <row r="166" spans="1:10" ht="40.5">
       <c r="A166" s="15" t="s">
         <v>185</v>
       </c>
@@ -65290,7 +65290,7 @@
       </c>
       <c r="J166" s="1"/>
     </row>
-    <row r="167" spans="1:10" ht="57">
+    <row r="167" spans="1:10" ht="54">
       <c r="A167" s="15" t="s">
         <v>186</v>
       </c>
@@ -65318,7 +65318,7 @@
       </c>
       <c r="J167" s="1"/>
     </row>
-    <row r="168" spans="1:10" ht="20.25">
+    <row r="168" spans="1:10" ht="18.75">
       <c r="A168" s="15" t="s">
         <v>187</v>
       </c>
@@ -65346,7 +65346,7 @@
       </c>
       <c r="J168" s="1"/>
     </row>
-    <row r="169" spans="1:10" ht="28.5">
+    <row r="169" spans="1:10" ht="27">
       <c r="A169" s="15" t="s">
         <v>188</v>
       </c>
@@ -65374,7 +65374,7 @@
       </c>
       <c r="J169" s="1"/>
     </row>
-    <row r="170" spans="1:10" ht="42.75">
+    <row r="170" spans="1:10" ht="40.5">
       <c r="A170" s="15" t="s">
         <v>189</v>
       </c>
@@ -65402,7 +65402,7 @@
       </c>
       <c r="J170" s="1"/>
     </row>
-    <row r="171" spans="1:10" ht="85.5">
+    <row r="171" spans="1:10" ht="81">
       <c r="A171" s="15" t="s">
         <v>190</v>
       </c>
@@ -65430,7 +65430,7 @@
       </c>
       <c r="J171" s="1"/>
     </row>
-    <row r="172" spans="1:10" ht="42.75">
+    <row r="172" spans="1:10" ht="27">
       <c r="A172" s="15" t="s">
         <v>191</v>
       </c>
@@ -65458,7 +65458,7 @@
       </c>
       <c r="J172" s="1"/>
     </row>
-    <row r="173" spans="1:10" ht="20.25">
+    <row r="173" spans="1:10" ht="18.75">
       <c r="A173" s="15" t="s">
         <v>192</v>
       </c>
@@ -65486,7 +65486,7 @@
       </c>
       <c r="J173" s="1"/>
     </row>
-    <row r="174" spans="1:10" ht="57">
+    <row r="174" spans="1:10" ht="40.5">
       <c r="A174" s="15" t="s">
         <v>193</v>
       </c>
@@ -65514,7 +65514,7 @@
       </c>
       <c r="J174" s="1"/>
     </row>
-    <row r="175" spans="1:10" ht="57">
+    <row r="175" spans="1:10" ht="40.5">
       <c r="A175" s="15" t="s">
         <v>194</v>
       </c>
@@ -65542,7 +65542,7 @@
       </c>
       <c r="J175" s="1"/>
     </row>
-    <row r="176" spans="1:10" ht="57">
+    <row r="176" spans="1:10" ht="54">
       <c r="A176" s="15" t="s">
         <v>195</v>
       </c>
@@ -65570,7 +65570,7 @@
       </c>
       <c r="J176" s="1"/>
     </row>
-    <row r="177" spans="1:10" ht="57">
+    <row r="177" spans="1:10" ht="40.5">
       <c r="A177" s="15" t="s">
         <v>196</v>
       </c>
@@ -65598,7 +65598,7 @@
       </c>
       <c r="J177" s="1"/>
     </row>
-    <row r="178" spans="1:10" ht="71.25">
+    <row r="178" spans="1:10" ht="67.5">
       <c r="A178" s="15" t="s">
         <v>197</v>
       </c>
@@ -65626,7 +65626,7 @@
       </c>
       <c r="J178" s="1"/>
     </row>
-    <row r="179" spans="1:10" ht="42.75">
+    <row r="179" spans="1:10" ht="27">
       <c r="A179" s="15" t="s">
         <v>198</v>
       </c>
@@ -65654,7 +65654,7 @@
       </c>
       <c r="J179" s="1"/>
     </row>
-    <row r="180" spans="1:10" ht="42.75">
+    <row r="180" spans="1:10" ht="40.5">
       <c r="A180" s="15" t="s">
         <v>199</v>
       </c>
@@ -65682,7 +65682,7 @@
       </c>
       <c r="J180" s="1"/>
     </row>
-    <row r="181" spans="1:10" ht="71.25">
+    <row r="181" spans="1:10" ht="67.5">
       <c r="A181" s="15" t="s">
         <v>200</v>
       </c>
@@ -65710,7 +65710,7 @@
       </c>
       <c r="J181" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="28.5">
+    <row r="182" spans="1:10" ht="27">
       <c r="A182" s="15" t="s">
         <v>201</v>
       </c>
@@ -65738,7 +65738,7 @@
       </c>
       <c r="J182" s="1"/>
     </row>
-    <row r="183" spans="1:10" ht="42.75">
+    <row r="183" spans="1:10" ht="40.5">
       <c r="A183" s="15" t="s">
         <v>202</v>
       </c>
@@ -65766,7 +65766,7 @@
       </c>
       <c r="J183" s="1"/>
     </row>
-    <row r="184" spans="1:10" ht="42.75">
+    <row r="184" spans="1:10" ht="40.5">
       <c r="A184" s="15" t="s">
         <v>203</v>
       </c>
@@ -65792,7 +65792,7 @@
       </c>
       <c r="J184" s="1"/>
     </row>
-    <row r="185" spans="1:10" ht="57">
+    <row r="185" spans="1:10" ht="54">
       <c r="A185" s="15" t="s">
         <v>204</v>
       </c>
@@ -65820,7 +65820,7 @@
       </c>
       <c r="J185" s="1"/>
     </row>
-    <row r="186" spans="1:10" ht="57">
+    <row r="186" spans="1:10" ht="54">
       <c r="A186" s="15" t="s">
         <v>205</v>
       </c>
@@ -65848,7 +65848,7 @@
       </c>
       <c r="J186" s="1"/>
     </row>
-    <row r="187" spans="1:10" ht="42.75">
+    <row r="187" spans="1:10" ht="40.5">
       <c r="A187" s="15" t="s">
         <v>206</v>
       </c>
@@ -65874,7 +65874,7 @@
       </c>
       <c r="J187" s="1"/>
     </row>
-    <row r="188" spans="1:10" ht="42.75">
+    <row r="188" spans="1:10" ht="40.5">
       <c r="A188" s="15" t="s">
         <v>207</v>
       </c>
@@ -65902,7 +65902,7 @@
       </c>
       <c r="J188" s="1"/>
     </row>
-    <row r="189" spans="1:10" ht="20.25">
+    <row r="189" spans="1:10" ht="18.75">
       <c r="A189" s="15" t="s">
         <v>208</v>
       </c>
@@ -65930,7 +65930,7 @@
       </c>
       <c r="J189" s="1"/>
     </row>
-    <row r="190" spans="1:10" ht="20.25">
+    <row r="190" spans="1:10" ht="18.75">
       <c r="A190" s="15" t="s">
         <v>209</v>
       </c>
@@ -65958,7 +65958,7 @@
       </c>
       <c r="J190" s="1"/>
     </row>
-    <row r="191" spans="1:10" ht="71.25">
+    <row r="191" spans="1:10" ht="67.5">
       <c r="A191" s="15" t="s">
         <v>210</v>
       </c>
@@ -65986,7 +65986,7 @@
       </c>
       <c r="J191" s="1"/>
     </row>
-    <row r="192" spans="1:10" ht="71.25">
+    <row r="192" spans="1:10" ht="67.5">
       <c r="A192" s="15" t="s">
         <v>211</v>
       </c>
@@ -66014,7 +66014,7 @@
       </c>
       <c r="J192" s="1"/>
     </row>
-    <row r="193" spans="1:10" ht="28.5">
+    <row r="193" spans="1:10" ht="27">
       <c r="A193" s="15" t="s">
         <v>212</v>
       </c>
@@ -66040,7 +66040,7 @@
       </c>
       <c r="J193" s="1"/>
     </row>
-    <row r="194" spans="1:10" ht="42.75">
+    <row r="194" spans="1:10" ht="40.5">
       <c r="A194" s="15" t="s">
         <v>213</v>
       </c>
@@ -66068,7 +66068,7 @@
       </c>
       <c r="J194" s="1"/>
     </row>
-    <row r="195" spans="1:10" ht="42.75">
+    <row r="195" spans="1:10" ht="40.5">
       <c r="A195" s="15" t="s">
         <v>214</v>
       </c>
@@ -66096,7 +66096,7 @@
       </c>
       <c r="J195" s="1"/>
     </row>
-    <row r="196" spans="1:10" ht="42.75">
+    <row r="196" spans="1:10" ht="40.5">
       <c r="A196" s="15" t="s">
         <v>215</v>
       </c>
@@ -66124,7 +66124,7 @@
       </c>
       <c r="J196" s="1"/>
     </row>
-    <row r="197" spans="1:10" ht="28.5">
+    <row r="197" spans="1:10" ht="27">
       <c r="A197" s="15" t="s">
         <v>216</v>
       </c>
@@ -66152,7 +66152,7 @@
       </c>
       <c r="J197" s="1"/>
     </row>
-    <row r="198" spans="1:10" ht="20.25">
+    <row r="198" spans="1:10" ht="18.75">
       <c r="A198" s="15" t="s">
         <v>217</v>
       </c>
@@ -66180,7 +66180,7 @@
       </c>
       <c r="J198" s="1"/>
     </row>
-    <row r="199" spans="1:10" ht="20.25">
+    <row r="199" spans="1:10" ht="18.75">
       <c r="A199" s="15" t="s">
         <v>218</v>
       </c>
@@ -66208,7 +66208,7 @@
       </c>
       <c r="J199" s="1"/>
     </row>
-    <row r="200" spans="1:10" ht="42.75">
+    <row r="200" spans="1:10" ht="27">
       <c r="A200" s="15" t="s">
         <v>219</v>
       </c>
@@ -66236,7 +66236,7 @@
       </c>
       <c r="J200" s="1"/>
     </row>
-    <row r="201" spans="1:10" ht="57">
+    <row r="201" spans="1:10" ht="54">
       <c r="A201" s="15" t="s">
         <v>220</v>
       </c>
@@ -66264,7 +66264,7 @@
       </c>
       <c r="J201" s="1"/>
     </row>
-    <row r="202" spans="1:10" ht="20.25">
+    <row r="202" spans="1:10" ht="18.75">
       <c r="A202" s="15" t="s">
         <v>221</v>
       </c>
@@ -66292,7 +66292,7 @@
       </c>
       <c r="J202" s="1"/>
     </row>
-    <row r="203" spans="1:10" ht="57">
+    <row r="203" spans="1:10" ht="40.5">
       <c r="A203" s="15" t="s">
         <v>222</v>
       </c>
@@ -66320,7 +66320,7 @@
       </c>
       <c r="J203" s="1"/>
     </row>
-    <row r="204" spans="1:10" ht="85.5">
+    <row r="204" spans="1:10" ht="81">
       <c r="A204" s="15" t="s">
         <v>223</v>
       </c>
@@ -66348,7 +66348,7 @@
       </c>
       <c r="J204" s="1"/>
     </row>
-    <row r="205" spans="1:10" ht="42.75">
+    <row r="205" spans="1:10" ht="40.5">
       <c r="A205" s="15" t="s">
         <v>224</v>
       </c>
@@ -66376,7 +66376,7 @@
       </c>
       <c r="J205" s="1"/>
     </row>
-    <row r="206" spans="1:10" ht="57">
+    <row r="206" spans="1:10" ht="54">
       <c r="A206" s="15" t="s">
         <v>225</v>
       </c>
@@ -66404,7 +66404,7 @@
       </c>
       <c r="J206" s="1"/>
     </row>
-    <row r="207" spans="1:10" ht="42.75">
+    <row r="207" spans="1:10" ht="40.5">
       <c r="A207" s="15" t="s">
         <v>226</v>
       </c>
@@ -66432,7 +66432,7 @@
       </c>
       <c r="J207" s="1"/>
     </row>
-    <row r="208" spans="1:10" ht="20.25">
+    <row r="208" spans="1:10" ht="18.75">
       <c r="A208" s="15" t="s">
         <v>227</v>
       </c>
@@ -66460,7 +66460,7 @@
       </c>
       <c r="J208" s="1"/>
     </row>
-    <row r="209" spans="1:10" ht="20.25">
+    <row r="209" spans="1:10" ht="18.75">
       <c r="A209" s="15" t="s">
         <v>228</v>
       </c>
@@ -66488,7 +66488,7 @@
       </c>
       <c r="J209" s="1"/>
     </row>
-    <row r="210" spans="1:10" ht="28.5">
+    <row r="210" spans="1:10" ht="27">
       <c r="A210" s="15" t="s">
         <v>229</v>
       </c>
@@ -66516,7 +66516,7 @@
       </c>
       <c r="J210" s="1"/>
     </row>
-    <row r="211" spans="1:10" ht="57">
+    <row r="211" spans="1:10" ht="54">
       <c r="A211" s="15" t="s">
         <v>230</v>
       </c>
@@ -66544,7 +66544,7 @@
       </c>
       <c r="J211" s="1"/>
     </row>
-    <row r="212" spans="1:10" ht="42.75">
+    <row r="212" spans="1:10" ht="40.5">
       <c r="A212" s="15" t="s">
         <v>231</v>
       </c>
@@ -66572,7 +66572,7 @@
       </c>
       <c r="J212" s="1"/>
     </row>
-    <row r="213" spans="1:10" ht="28.5">
+    <row r="213" spans="1:10" ht="27">
       <c r="A213" s="15" t="s">
         <v>232</v>
       </c>
@@ -66600,7 +66600,7 @@
       </c>
       <c r="J213" s="1"/>
     </row>
-    <row r="214" spans="1:10" ht="28.5">
+    <row r="214" spans="1:10" ht="27">
       <c r="A214" s="15" t="s">
         <v>233</v>
       </c>
@@ -66628,7 +66628,7 @@
       </c>
       <c r="J214" s="1"/>
     </row>
-    <row r="215" spans="1:10" ht="57">
+    <row r="215" spans="1:10" ht="54">
       <c r="A215" s="15" t="s">
         <v>234</v>
       </c>
@@ -66656,7 +66656,7 @@
       </c>
       <c r="J215" s="1"/>
     </row>
-    <row r="216" spans="1:10" ht="42.75">
+    <row r="216" spans="1:10" ht="40.5">
       <c r="A216" s="15" t="s">
         <v>235</v>
       </c>
@@ -66684,7 +66684,7 @@
       </c>
       <c r="J216" s="1"/>
     </row>
-    <row r="217" spans="1:10" ht="71.25">
+    <row r="217" spans="1:10" ht="67.5">
       <c r="A217" s="15" t="s">
         <v>236</v>
       </c>
@@ -66712,7 +66712,7 @@
       </c>
       <c r="J217" s="1"/>
     </row>
-    <row r="218" spans="1:10" ht="57">
+    <row r="218" spans="1:10" ht="54">
       <c r="A218" s="15" t="s">
         <v>237</v>
       </c>
@@ -66740,7 +66740,7 @@
       </c>
       <c r="J218" s="1"/>
     </row>
-    <row r="219" spans="1:10" ht="57">
+    <row r="219" spans="1:10" ht="54">
       <c r="A219" s="15" t="s">
         <v>238</v>
       </c>
@@ -66768,7 +66768,7 @@
       </c>
       <c r="J219" s="1"/>
     </row>
-    <row r="220" spans="1:10" ht="85.5">
+    <row r="220" spans="1:10" ht="81">
       <c r="A220" s="15" t="s">
         <v>239</v>
       </c>
@@ -66796,7 +66796,7 @@
       </c>
       <c r="J220" s="1"/>
     </row>
-    <row r="221" spans="1:10" ht="28.5">
+    <row r="221" spans="1:10" ht="27">
       <c r="A221" s="15" t="s">
         <v>240</v>
       </c>
@@ -66824,7 +66824,7 @@
       </c>
       <c r="J221" s="1"/>
     </row>
-    <row r="222" spans="1:10" ht="42.75">
+    <row r="222" spans="1:10" ht="40.5">
       <c r="A222" s="15" t="s">
         <v>241</v>
       </c>
@@ -66852,7 +66852,7 @@
       </c>
       <c r="J222" s="1"/>
     </row>
-    <row r="223" spans="1:10" ht="57">
+    <row r="223" spans="1:10" ht="54">
       <c r="A223" s="15" t="s">
         <v>242</v>
       </c>
@@ -66878,7 +66878,7 @@
       </c>
       <c r="J223" s="1"/>
     </row>
-    <row r="224" spans="1:10" ht="42.75">
+    <row r="224" spans="1:10" ht="40.5">
       <c r="A224" s="15" t="s">
         <v>243</v>
       </c>
@@ -66906,7 +66906,7 @@
       </c>
       <c r="J224" s="1"/>
     </row>
-    <row r="225" spans="1:10" ht="57">
+    <row r="225" spans="1:10" ht="54">
       <c r="A225" s="15" t="s">
         <v>244</v>
       </c>
@@ -66934,7 +66934,7 @@
       </c>
       <c r="J225" s="1"/>
     </row>
-    <row r="226" spans="1:10" ht="42.75">
+    <row r="226" spans="1:10" ht="40.5">
       <c r="A226" s="15" t="s">
         <v>245</v>
       </c>
@@ -66962,7 +66962,7 @@
       </c>
       <c r="J226" s="1"/>
     </row>
-    <row r="227" spans="1:10" ht="20.25">
+    <row r="227" spans="1:10" ht="18.75">
       <c r="A227" s="15" t="s">
         <v>246</v>
       </c>
@@ -66986,7 +66986,7 @@
       </c>
       <c r="J227" s="1"/>
     </row>
-    <row r="228" spans="1:10" ht="57">
+    <row r="228" spans="1:10" ht="54">
       <c r="A228" s="15" t="s">
         <v>247</v>
       </c>
@@ -67014,7 +67014,7 @@
       </c>
       <c r="J228" s="1"/>
     </row>
-    <row r="229" spans="1:10" ht="57">
+    <row r="229" spans="1:10" ht="54">
       <c r="A229" s="15" t="s">
         <v>248</v>
       </c>
@@ -67042,7 +67042,7 @@
       </c>
       <c r="J229" s="1"/>
     </row>
-    <row r="230" spans="1:10" ht="71.25">
+    <row r="230" spans="1:10" ht="67.5">
       <c r="A230" s="15" t="s">
         <v>249</v>
       </c>
@@ -67070,7 +67070,7 @@
       </c>
       <c r="J230" s="1"/>
     </row>
-    <row r="231" spans="1:10" ht="20.25">
+    <row r="231" spans="1:10" ht="18.75">
       <c r="A231" s="15" t="s">
         <v>250</v>
       </c>
@@ -67098,7 +67098,7 @@
       </c>
       <c r="J231" s="1"/>
     </row>
-    <row r="232" spans="1:10" ht="20.25">
+    <row r="232" spans="1:10" ht="18.75">
       <c r="A232" s="15" t="s">
         <v>251</v>
       </c>
@@ -67126,7 +67126,7 @@
       </c>
       <c r="J232" s="1"/>
     </row>
-    <row r="233" spans="1:10" ht="71.25">
+    <row r="233" spans="1:10" ht="67.5">
       <c r="A233" s="15" t="s">
         <v>252</v>
       </c>
@@ -67154,7 +67154,7 @@
       </c>
       <c r="J233" s="1"/>
     </row>
-    <row r="234" spans="1:10" ht="57">
+    <row r="234" spans="1:10" ht="54">
       <c r="A234" s="15" t="s">
         <v>253</v>
       </c>
@@ -67182,7 +67182,7 @@
       </c>
       <c r="J234" s="1"/>
     </row>
-    <row r="235" spans="1:10" ht="71.25">
+    <row r="235" spans="1:10" ht="67.5">
       <c r="A235" s="15" t="s">
         <v>254</v>
       </c>
@@ -67210,7 +67210,7 @@
       </c>
       <c r="J235" s="1"/>
     </row>
-    <row r="236" spans="1:10" ht="20.25">
+    <row r="236" spans="1:10" ht="18.75">
       <c r="A236" s="15" t="s">
         <v>255</v>
       </c>
@@ -67236,7 +67236,7 @@
       </c>
       <c r="J236" s="1"/>
     </row>
-    <row r="237" spans="1:10" ht="42.75">
+    <row r="237" spans="1:10" ht="40.5">
       <c r="A237" s="15" t="s">
         <v>256</v>
       </c>
@@ -67264,7 +67264,7 @@
       </c>
       <c r="J237" s="1"/>
     </row>
-    <row r="238" spans="1:10" ht="57">
+    <row r="238" spans="1:10" ht="54">
       <c r="A238" s="15" t="s">
         <v>257</v>
       </c>
@@ -67290,7 +67290,7 @@
       </c>
       <c r="J238" s="1"/>
     </row>
-    <row r="239" spans="1:10" ht="57">
+    <row r="239" spans="1:10" ht="54">
       <c r="A239" s="15" t="s">
         <v>258</v>
       </c>
@@ -67318,7 +67318,7 @@
       </c>
       <c r="J239" s="1"/>
     </row>
-    <row r="240" spans="1:10" ht="28.5">
+    <row r="240" spans="1:10" ht="27">
       <c r="A240" s="15" t="s">
         <v>259</v>
       </c>
@@ -67346,7 +67346,7 @@
       </c>
       <c r="J240" s="1"/>
     </row>
-    <row r="241" spans="1:10" ht="20.25">
+    <row r="241" spans="1:10" ht="18.75">
       <c r="A241" s="15" t="s">
         <v>260</v>
       </c>
@@ -67372,7 +67372,7 @@
       </c>
       <c r="J241" s="1"/>
     </row>
-    <row r="242" spans="1:10" ht="28.5">
+    <row r="242" spans="1:10" ht="27">
       <c r="A242" s="15" t="s">
         <v>261</v>
       </c>
@@ -67400,7 +67400,7 @@
       </c>
       <c r="J242" s="1"/>
     </row>
-    <row r="243" spans="1:10" ht="57">
+    <row r="243" spans="1:10" ht="54">
       <c r="A243" s="15" t="s">
         <v>262</v>
       </c>
@@ -67426,7 +67426,7 @@
       </c>
       <c r="J243" s="1"/>
     </row>
-    <row r="244" spans="1:10" ht="42.75">
+    <row r="244" spans="1:10" ht="40.5">
       <c r="A244" s="15" t="s">
         <v>263</v>
       </c>
@@ -67452,7 +67452,7 @@
       </c>
       <c r="J244" s="1"/>
     </row>
-    <row r="245" spans="1:10" ht="20.25">
+    <row r="245" spans="1:10" ht="18.75">
       <c r="A245" s="15" t="s">
         <v>264</v>
       </c>
@@ -67478,7 +67478,7 @@
       </c>
       <c r="J245" s="1"/>
     </row>
-    <row r="246" spans="1:10" ht="57">
+    <row r="246" spans="1:10" ht="40.5">
       <c r="A246" s="15" t="s">
         <v>265</v>
       </c>
@@ -67506,7 +67506,7 @@
       </c>
       <c r="J246" s="1"/>
     </row>
-    <row r="247" spans="1:10" ht="42.75">
+    <row r="247" spans="1:10" ht="40.5">
       <c r="A247" s="15" t="s">
         <v>266</v>
       </c>
@@ -67534,7 +67534,7 @@
       </c>
       <c r="J247" s="1"/>
     </row>
-    <row r="248" spans="1:10" ht="28.5">
+    <row r="248" spans="1:10" ht="18.75">
       <c r="A248" s="15" t="s">
         <v>267</v>
       </c>
@@ -67560,7 +67560,7 @@
       </c>
       <c r="J248" s="1"/>
     </row>
-    <row r="249" spans="1:10" ht="20.25">
+    <row r="249" spans="1:10" ht="18.75">
       <c r="A249" s="15" t="s">
         <v>268</v>
       </c>
@@ -67588,7 +67588,7 @@
       </c>
       <c r="J249" s="1"/>
     </row>
-    <row r="250" spans="1:10" ht="42.75">
+    <row r="250" spans="1:10" ht="40.5">
       <c r="A250" s="15" t="s">
         <v>269</v>
       </c>
@@ -67616,7 +67616,7 @@
       </c>
       <c r="J250" s="1"/>
     </row>
-    <row r="251" spans="1:10" ht="20.25">
+    <row r="251" spans="1:10" ht="18.75">
       <c r="A251" s="15" t="s">
         <v>270</v>
       </c>
@@ -67644,7 +67644,7 @@
       </c>
       <c r="J251" s="1"/>
     </row>
-    <row r="252" spans="1:10" ht="71.25">
+    <row r="252" spans="1:10" ht="67.5">
       <c r="A252" s="15" t="s">
         <v>271</v>
       </c>
@@ -67672,7 +67672,7 @@
       </c>
       <c r="J252" s="1"/>
     </row>
-    <row r="253" spans="1:10" ht="28.5">
+    <row r="253" spans="1:10" ht="18.75">
       <c r="A253" s="15" t="s">
         <v>272</v>
       </c>
@@ -67700,7 +67700,7 @@
       </c>
       <c r="J253" s="1"/>
     </row>
-    <row r="254" spans="1:10" ht="42.75">
+    <row r="254" spans="1:10" ht="40.5">
       <c r="A254" s="15" t="s">
         <v>273</v>
       </c>
@@ -67726,7 +67726,7 @@
       </c>
       <c r="J254" s="1"/>
     </row>
-    <row r="255" spans="1:10" ht="57">
+    <row r="255" spans="1:10" ht="54">
       <c r="A255" s="15" t="s">
         <v>274</v>
       </c>
@@ -67754,7 +67754,7 @@
       </c>
       <c r="J255" s="1"/>
     </row>
-    <row r="256" spans="1:10" ht="57">
+    <row r="256" spans="1:10" ht="54">
       <c r="A256" s="15" t="s">
         <v>275</v>
       </c>
@@ -67782,7 +67782,7 @@
       </c>
       <c r="J256" s="1"/>
     </row>
-    <row r="257" spans="1:10" ht="57">
+    <row r="257" spans="1:10" ht="54">
       <c r="A257" s="15" t="s">
         <v>276</v>
       </c>
@@ -67810,7 +67810,7 @@
       </c>
       <c r="J257" s="1"/>
     </row>
-    <row r="258" spans="1:10" ht="57">
+    <row r="258" spans="1:10" ht="40.5">
       <c r="A258" s="15" t="s">
         <v>277</v>
       </c>
@@ -67838,7 +67838,7 @@
       </c>
       <c r="J258" s="1"/>
     </row>
-    <row r="259" spans="1:10" ht="20.25">
+    <row r="259" spans="1:10" ht="18.75">
       <c r="A259" s="15" t="s">
         <v>278</v>
       </c>
@@ -67864,7 +67864,7 @@
       </c>
       <c r="J259" s="1"/>
     </row>
-    <row r="260" spans="1:10" ht="42.75">
+    <row r="260" spans="1:10" ht="40.5">
       <c r="A260" s="15" t="s">
         <v>279</v>
       </c>
@@ -67892,7 +67892,7 @@
       </c>
       <c r="J260" s="1"/>
     </row>
-    <row r="261" spans="1:10" ht="28.5">
+    <row r="261" spans="1:10" ht="27">
       <c r="A261" s="15" t="s">
         <v>280</v>
       </c>
@@ -67920,7 +67920,7 @@
       </c>
       <c r="J261" s="1"/>
     </row>
-    <row r="262" spans="1:10" ht="28.5">
+    <row r="262" spans="1:10" ht="27">
       <c r="A262" s="15" t="s">
         <v>281</v>
       </c>
@@ -67948,7 +67948,7 @@
       </c>
       <c r="J262" s="1"/>
     </row>
-    <row r="263" spans="1:10" ht="28.5">
+    <row r="263" spans="1:10" ht="27">
       <c r="A263" s="15" t="s">
         <v>282</v>
       </c>
@@ -67976,7 +67976,7 @@
       </c>
       <c r="J263" s="1"/>
     </row>
-    <row r="264" spans="1:10" ht="28.5">
+    <row r="264" spans="1:10" ht="27">
       <c r="A264" s="15" t="s">
         <v>283</v>
       </c>
@@ -68002,7 +68002,7 @@
       </c>
       <c r="J264" s="1"/>
     </row>
-    <row r="265" spans="1:10" ht="71.25">
+    <row r="265" spans="1:10" ht="54">
       <c r="A265" s="15" t="s">
         <v>284</v>
       </c>
@@ -68028,7 +68028,7 @@
       </c>
       <c r="J265" s="1"/>
     </row>
-    <row r="266" spans="1:10" ht="57">
+    <row r="266" spans="1:10" ht="40.5">
       <c r="A266" s="15" t="s">
         <v>285</v>
       </c>
@@ -68054,7 +68054,7 @@
       </c>
       <c r="J266" s="1"/>
     </row>
-    <row r="267" spans="1:10" ht="42.75">
+    <row r="267" spans="1:10" ht="40.5">
       <c r="A267" s="15" t="s">
         <v>286</v>
       </c>
@@ -68082,7 +68082,7 @@
       </c>
       <c r="J267" s="1"/>
     </row>
-    <row r="268" spans="1:10" ht="28.5">
+    <row r="268" spans="1:10" ht="27">
       <c r="A268" s="15" t="s">
         <v>287</v>
       </c>
@@ -68110,7 +68110,7 @@
       </c>
       <c r="J268" s="1"/>
     </row>
-    <row r="269" spans="1:10" ht="42.75">
+    <row r="269" spans="1:10" ht="40.5">
       <c r="A269" s="15" t="s">
         <v>288</v>
       </c>
@@ -68138,7 +68138,7 @@
       </c>
       <c r="J269" s="1"/>
     </row>
-    <row r="270" spans="1:10" ht="71.25">
+    <row r="270" spans="1:10" ht="67.5">
       <c r="A270" s="15" t="s">
         <v>289</v>
       </c>
@@ -68166,7 +68166,7 @@
       </c>
       <c r="J270" s="1"/>
     </row>
-    <row r="271" spans="1:10" ht="42.75">
+    <row r="271" spans="1:10" ht="40.5">
       <c r="A271" s="15" t="s">
         <v>290</v>
       </c>
@@ -68192,7 +68192,7 @@
       </c>
       <c r="J271" s="1"/>
     </row>
-    <row r="272" spans="1:10" ht="57">
+    <row r="272" spans="1:10" ht="54">
       <c r="A272" s="15" t="s">
         <v>291</v>
       </c>
@@ -68220,7 +68220,7 @@
       </c>
       <c r="J272" s="1"/>
     </row>
-    <row r="273" spans="1:10" ht="20.25">
+    <row r="273" spans="1:10" ht="18.75">
       <c r="A273" s="15" t="s">
         <v>292</v>
       </c>
@@ -68248,7 +68248,7 @@
       </c>
       <c r="J273" s="1"/>
     </row>
-    <row r="274" spans="1:10" ht="57">
+    <row r="274" spans="1:10" ht="54">
       <c r="A274" s="15" t="s">
         <v>293</v>
       </c>
@@ -68276,7 +68276,7 @@
       </c>
       <c r="J274" s="1"/>
     </row>
-    <row r="275" spans="1:10" ht="42.75">
+    <row r="275" spans="1:10" ht="40.5">
       <c r="A275" s="15" t="s">
         <v>294</v>
       </c>
@@ -68304,7 +68304,7 @@
       </c>
       <c r="J275" s="1"/>
     </row>
-    <row r="276" spans="1:10" ht="57">
+    <row r="276" spans="1:10" ht="54">
       <c r="A276" s="15" t="s">
         <v>295</v>
       </c>
@@ -68332,7 +68332,7 @@
       </c>
       <c r="J276" s="1"/>
     </row>
-    <row r="277" spans="1:10" ht="20.25">
+    <row r="277" spans="1:10" ht="18.75">
       <c r="A277" s="15" t="s">
         <v>296</v>
       </c>
@@ -68360,7 +68360,7 @@
       </c>
       <c r="J277" s="1"/>
     </row>
-    <row r="278" spans="1:10" ht="28.5">
+    <row r="278" spans="1:10" ht="27">
       <c r="A278" s="15" t="s">
         <v>297</v>
       </c>
@@ -68388,7 +68388,7 @@
       </c>
       <c r="J278" s="1"/>
     </row>
-    <row r="279" spans="1:10" ht="28.5">
+    <row r="279" spans="1:10" ht="27">
       <c r="A279" s="15" t="s">
         <v>298</v>
       </c>
@@ -68416,7 +68416,7 @@
       </c>
       <c r="J279" s="1"/>
     </row>
-    <row r="280" spans="1:10" ht="57">
+    <row r="280" spans="1:10" ht="40.5">
       <c r="A280" s="15" t="s">
         <v>299</v>
       </c>
@@ -68444,7 +68444,7 @@
       </c>
       <c r="J280" s="1"/>
     </row>
-    <row r="281" spans="1:10" ht="57">
+    <row r="281" spans="1:10" ht="54">
       <c r="A281" s="15" t="s">
         <v>300</v>
       </c>
@@ -68472,7 +68472,7 @@
       </c>
       <c r="J281" s="1"/>
     </row>
-    <row r="282" spans="1:10" ht="20.25">
+    <row r="282" spans="1:10" ht="18.75">
       <c r="A282" s="15" t="s">
         <v>301</v>
       </c>
@@ -68498,7 +68498,7 @@
       </c>
       <c r="J282" s="1"/>
     </row>
-    <row r="283" spans="1:10" ht="57">
+    <row r="283" spans="1:10" ht="54">
       <c r="A283" s="15" t="s">
         <v>302</v>
       </c>
@@ -68526,7 +68526,7 @@
       </c>
       <c r="J283" s="1"/>
     </row>
-    <row r="284" spans="1:10" ht="28.5">
+    <row r="284" spans="1:10" ht="27">
       <c r="A284" s="15" t="s">
         <v>303</v>
       </c>
@@ -68554,7 +68554,7 @@
       </c>
       <c r="J284" s="1"/>
     </row>
-    <row r="285" spans="1:10" ht="28.5">
+    <row r="285" spans="1:10" ht="27">
       <c r="A285" s="15" t="s">
         <v>304</v>
       </c>
@@ -68580,7 +68580,7 @@
       </c>
       <c r="J285" s="1"/>
     </row>
-    <row r="286" spans="1:10" ht="57">
+    <row r="286" spans="1:10" ht="40.5">
       <c r="A286" s="15" t="s">
         <v>305</v>
       </c>
@@ -68606,7 +68606,7 @@
       </c>
       <c r="J286" s="1"/>
     </row>
-    <row r="287" spans="1:10" ht="57">
+    <row r="287" spans="1:10" ht="54">
       <c r="A287" s="15" t="s">
         <v>306</v>
       </c>
@@ -68634,7 +68634,7 @@
       </c>
       <c r="J287" s="1"/>
     </row>
-    <row r="288" spans="1:10" ht="57">
+    <row r="288" spans="1:10" ht="54">
       <c r="A288" s="15" t="s">
         <v>307</v>
       </c>
@@ -68662,7 +68662,7 @@
       </c>
       <c r="J288" s="1"/>
     </row>
-    <row r="289" spans="1:10" ht="57">
+    <row r="289" spans="1:10" ht="54">
       <c r="A289" s="15" t="s">
         <v>308</v>
       </c>
@@ -68690,7 +68690,7 @@
       </c>
       <c r="J289" s="1"/>
     </row>
-    <row r="290" spans="1:10" ht="20.25">
+    <row r="290" spans="1:10" ht="18.75">
       <c r="A290" s="15" t="s">
         <v>309</v>
       </c>
@@ -68718,7 +68718,7 @@
       </c>
       <c r="J290" s="1"/>
     </row>
-    <row r="291" spans="1:10" ht="57">
+    <row r="291" spans="1:10" ht="54">
       <c r="A291" s="15" t="s">
         <v>310</v>
       </c>
@@ -68746,7 +68746,7 @@
       </c>
       <c r="J291" s="1"/>
     </row>
-    <row r="292" spans="1:10" ht="42.75">
+    <row r="292" spans="1:10" ht="40.5">
       <c r="A292" s="15" t="s">
         <v>311</v>
       </c>
@@ -68774,7 +68774,7 @@
       </c>
       <c r="J292" s="1"/>
     </row>
-    <row r="293" spans="1:10" ht="71.25">
+    <row r="293" spans="1:10" ht="67.5">
       <c r="A293" s="15" t="s">
         <v>312</v>
       </c>
@@ -68802,7 +68802,7 @@
       </c>
       <c r="J293" s="1"/>
     </row>
-    <row r="294" spans="1:10" ht="42.75">
+    <row r="294" spans="1:10" ht="40.5">
       <c r="A294" s="15" t="s">
         <v>313</v>
       </c>
@@ -68830,7 +68830,7 @@
       </c>
       <c r="J294" s="1"/>
     </row>
-    <row r="295" spans="1:10" ht="28.5">
+    <row r="295" spans="1:10" ht="27">
       <c r="A295" s="15" t="s">
         <v>314</v>
       </c>
@@ -68858,7 +68858,7 @@
       </c>
       <c r="J295" s="1"/>
     </row>
-    <row r="296" spans="1:10" ht="42.75">
+    <row r="296" spans="1:10" ht="40.5">
       <c r="A296" s="15" t="s">
         <v>315</v>
       </c>
@@ -68886,7 +68886,7 @@
       </c>
       <c r="J296" s="1"/>
     </row>
-    <row r="297" spans="1:10" ht="57">
+    <row r="297" spans="1:10" ht="54">
       <c r="A297" s="15" t="s">
         <v>316</v>
       </c>
@@ -68914,7 +68914,7 @@
       </c>
       <c r="J297" s="1"/>
     </row>
-    <row r="298" spans="1:10" ht="42.75">
+    <row r="298" spans="1:10" ht="40.5">
       <c r="A298" s="15" t="s">
         <v>317</v>
       </c>
@@ -68942,7 +68942,7 @@
       </c>
       <c r="J298" s="1"/>
     </row>
-    <row r="299" spans="1:10" ht="71.25">
+    <row r="299" spans="1:10" ht="67.5">
       <c r="A299" s="15" t="s">
         <v>318</v>
       </c>
@@ -68970,7 +68970,7 @@
       </c>
       <c r="J299" s="1"/>
     </row>
-    <row r="300" spans="1:10" ht="57">
+    <row r="300" spans="1:10" ht="54">
       <c r="A300" s="15" t="s">
         <v>319</v>
       </c>
@@ -68998,7 +68998,7 @@
       </c>
       <c r="J300" s="1"/>
     </row>
-    <row r="301" spans="1:10" ht="71.25">
+    <row r="301" spans="1:10" ht="67.5">
       <c r="A301" s="15" t="s">
         <v>320</v>
       </c>
@@ -69026,7 +69026,7 @@
       </c>
       <c r="J301" s="1"/>
     </row>
-    <row r="302" spans="1:10" ht="42.75">
+    <row r="302" spans="1:10" ht="40.5">
       <c r="A302" s="15" t="s">
         <v>321</v>
       </c>
@@ -69054,7 +69054,7 @@
       </c>
       <c r="J302" s="1"/>
     </row>
-    <row r="303" spans="1:10" ht="85.5">
+    <row r="303" spans="1:10" ht="67.5">
       <c r="A303" s="15" t="s">
         <v>322</v>
       </c>
@@ -69082,7 +69082,7 @@
       </c>
       <c r="J303" s="1"/>
     </row>
-    <row r="304" spans="1:10" ht="28.5">
+    <row r="304" spans="1:10" ht="27">
       <c r="A304" s="15" t="s">
         <v>323</v>
       </c>
@@ -69110,7 +69110,7 @@
       </c>
       <c r="J304" s="1"/>
     </row>
-    <row r="305" spans="1:10" ht="42.75">
+    <row r="305" spans="1:10" ht="27">
       <c r="A305" s="15" t="s">
         <v>324</v>
       </c>
@@ -69138,7 +69138,7 @@
       </c>
       <c r="J305" s="1"/>
     </row>
-    <row r="306" spans="1:10" ht="42.75">
+    <row r="306" spans="1:10" ht="40.5">
       <c r="A306" s="15" t="s">
         <v>325</v>
       </c>
@@ -69166,7 +69166,7 @@
       </c>
       <c r="J306" s="1"/>
     </row>
-    <row r="307" spans="1:10" ht="28.5">
+    <row r="307" spans="1:10" ht="27">
       <c r="A307" s="15" t="s">
         <v>326</v>
       </c>
@@ -69194,7 +69194,7 @@
       </c>
       <c r="J307" s="1"/>
     </row>
-    <row r="308" spans="1:10" ht="57">
+    <row r="308" spans="1:10" ht="54">
       <c r="A308" s="15" t="s">
         <v>327</v>
       </c>
@@ -69220,7 +69220,7 @@
       </c>
       <c r="J308" s="1"/>
     </row>
-    <row r="309" spans="1:10" ht="85.5">
+    <row r="309" spans="1:10" ht="81">
       <c r="A309" s="15" t="s">
         <v>328</v>
       </c>
@@ -69248,7 +69248,7 @@
       </c>
       <c r="J309" s="1"/>
     </row>
-    <row r="310" spans="1:10" ht="71.25">
+    <row r="310" spans="1:10" ht="67.5">
       <c r="A310" s="15" t="s">
         <v>329</v>
       </c>
@@ -69274,7 +69274,7 @@
       </c>
       <c r="J310" s="1"/>
     </row>
-    <row r="311" spans="1:10" ht="85.5">
+    <row r="311" spans="1:10" ht="94.5">
       <c r="A311" s="15" t="s">
         <v>330</v>
       </c>
@@ -69300,7 +69300,7 @@
       </c>
       <c r="J311" s="1"/>
     </row>
-    <row r="312" spans="1:10" ht="20.25">
+    <row r="312" spans="1:10" ht="18.75">
       <c r="A312" s="15" t="s">
         <v>331</v>
       </c>
@@ -69326,7 +69326,7 @@
       </c>
       <c r="J312" s="1"/>
     </row>
-    <row r="313" spans="1:10" ht="42.75">
+    <row r="313" spans="1:10" ht="40.5">
       <c r="A313" s="15" t="s">
         <v>332</v>
       </c>
@@ -69354,7 +69354,7 @@
       </c>
       <c r="J313" s="1"/>
     </row>
-    <row r="314" spans="1:10" ht="57">
+    <row r="314" spans="1:10" ht="40.5">
       <c r="A314" s="15" t="s">
         <v>333</v>
       </c>
@@ -69382,7 +69382,7 @@
       </c>
       <c r="J314" s="1"/>
     </row>
-    <row r="315" spans="1:10" ht="20.25">
+    <row r="315" spans="1:10" ht="18.75">
       <c r="A315" s="15" t="s">
         <v>334</v>
       </c>
@@ -69410,7 +69410,7 @@
       </c>
       <c r="J315" s="1"/>
     </row>
-    <row r="316" spans="1:10" ht="57">
+    <row r="316" spans="1:10" ht="54">
       <c r="A316" s="15" t="s">
         <v>335</v>
       </c>
@@ -69438,7 +69438,7 @@
       </c>
       <c r="J316" s="1"/>
     </row>
-    <row r="317" spans="1:10" ht="42.75">
+    <row r="317" spans="1:10" ht="40.5">
       <c r="A317" s="15" t="s">
         <v>336</v>
       </c>
@@ -69466,7 +69466,7 @@
       </c>
       <c r="J317" s="1"/>
     </row>
-    <row r="318" spans="1:10" ht="28.5">
+    <row r="318" spans="1:10" ht="27">
       <c r="A318" s="15" t="s">
         <v>337</v>
       </c>
@@ -69494,7 +69494,7 @@
       </c>
       <c r="J318" s="1"/>
     </row>
-    <row r="319" spans="1:10" ht="85.5">
+    <row r="319" spans="1:10" ht="81">
       <c r="A319" s="15" t="s">
         <v>338</v>
       </c>
@@ -69522,7 +69522,7 @@
       </c>
       <c r="J319" s="1"/>
     </row>
-    <row r="320" spans="1:10" ht="85.5">
+    <row r="320" spans="1:10" ht="81">
       <c r="A320" s="15" t="s">
         <v>339</v>
       </c>
@@ -69550,7 +69550,7 @@
       </c>
       <c r="J320" s="1"/>
     </row>
-    <row r="321" spans="1:10" ht="71.25">
+    <row r="321" spans="1:10" ht="67.5">
       <c r="A321" s="15" t="s">
         <v>340</v>
       </c>
@@ -69576,7 +69576,7 @@
       </c>
       <c r="J321" s="1"/>
     </row>
-    <row r="322" spans="1:10" ht="42.75">
+    <row r="322" spans="1:10" ht="40.5">
       <c r="A322" s="15" t="s">
         <v>341</v>
       </c>
@@ -69604,7 +69604,7 @@
       </c>
       <c r="J322" s="1"/>
     </row>
-    <row r="323" spans="1:10" ht="57">
+    <row r="323" spans="1:10" ht="40.5">
       <c r="A323" s="15" t="s">
         <v>342</v>
       </c>
@@ -69630,7 +69630,7 @@
       </c>
       <c r="J323" s="1"/>
     </row>
-    <row r="324" spans="1:10" ht="28.5">
+    <row r="324" spans="1:10" ht="27">
       <c r="A324" s="15" t="s">
         <v>343</v>
       </c>
@@ -69658,7 +69658,7 @@
       </c>
       <c r="J324" s="1"/>
     </row>
-    <row r="325" spans="1:10" ht="28.5">
+    <row r="325" spans="1:10" ht="27">
       <c r="A325" s="15" t="s">
         <v>344</v>
       </c>
@@ -69686,7 +69686,7 @@
       </c>
       <c r="J325" s="1"/>
     </row>
-    <row r="326" spans="1:10" ht="57">
+    <row r="326" spans="1:10" ht="54">
       <c r="A326" s="15" t="s">
         <v>345</v>
       </c>
@@ -69712,7 +69712,7 @@
       </c>
       <c r="J326" s="1"/>
     </row>
-    <row r="327" spans="1:10" ht="57">
+    <row r="327" spans="1:10" ht="40.5">
       <c r="A327" s="15" t="s">
         <v>346</v>
       </c>
@@ -69740,7 +69740,7 @@
       </c>
       <c r="J327" s="1"/>
     </row>
-    <row r="328" spans="1:10" ht="42.75">
+    <row r="328" spans="1:10" ht="40.5">
       <c r="A328" s="15" t="s">
         <v>347</v>
       </c>
@@ -69768,7 +69768,7 @@
       </c>
       <c r="J328" s="1"/>
     </row>
-    <row r="329" spans="1:10" ht="42.75">
+    <row r="329" spans="1:10" ht="40.5">
       <c r="A329" s="15" t="s">
         <v>348</v>
       </c>
@@ -69796,7 +69796,7 @@
       </c>
       <c r="J329" s="1"/>
     </row>
-    <row r="330" spans="1:10" ht="85.5">
+    <row r="330" spans="1:10" ht="67.5">
       <c r="A330" s="15" t="s">
         <v>349</v>
       </c>
@@ -69824,7 +69824,7 @@
       </c>
       <c r="J330" s="1"/>
     </row>
-    <row r="331" spans="1:10" ht="57">
+    <row r="331" spans="1:10" ht="54">
       <c r="A331" s="15" t="s">
         <v>350</v>
       </c>
@@ -69852,7 +69852,7 @@
       </c>
       <c r="J331" s="1"/>
     </row>
-    <row r="332" spans="1:10" ht="42.75">
+    <row r="332" spans="1:10" ht="27">
       <c r="A332" s="15" t="s">
         <v>351</v>
       </c>
@@ -69880,7 +69880,7 @@
       </c>
       <c r="J332" s="1"/>
     </row>
-    <row r="333" spans="1:10" ht="57">
+    <row r="333" spans="1:10" ht="54">
       <c r="A333" s="15" t="s">
         <v>352</v>
       </c>
@@ -69906,7 +69906,7 @@
       </c>
       <c r="J333" s="1"/>
     </row>
-    <row r="334" spans="1:10" ht="71.25">
+    <row r="334" spans="1:10" ht="67.5">
       <c r="A334" s="15" t="s">
         <v>353</v>
       </c>
@@ -69934,7 +69934,7 @@
       </c>
       <c r="J334" s="1"/>
     </row>
-    <row r="335" spans="1:10" ht="20.25">
+    <row r="335" spans="1:10" ht="18.75">
       <c r="A335" s="15" t="s">
         <v>354</v>
       </c>
@@ -69962,7 +69962,7 @@
       </c>
       <c r="J335" s="1"/>
     </row>
-    <row r="336" spans="1:10" ht="57">
+    <row r="336" spans="1:10" ht="54">
       <c r="A336" s="15" t="s">
         <v>355</v>
       </c>
@@ -69988,7 +69988,7 @@
       </c>
       <c r="J336" s="1"/>
     </row>
-    <row r="337" spans="1:10" ht="71.25">
+    <row r="337" spans="1:10" ht="67.5">
       <c r="A337" s="15" t="s">
         <v>356</v>
       </c>
@@ -70016,7 +70016,7 @@
       </c>
       <c r="J337" s="1"/>
     </row>
-    <row r="338" spans="1:10" ht="57">
+    <row r="338" spans="1:10" ht="54">
       <c r="A338" s="15" t="s">
         <v>357</v>
       </c>
@@ -70044,7 +70044,7 @@
       </c>
       <c r="J338" s="1"/>
     </row>
-    <row r="339" spans="1:10" ht="42.75">
+    <row r="339" spans="1:10" ht="40.5">
       <c r="A339" s="15" t="s">
         <v>358</v>
       </c>
@@ -70072,7 +70072,7 @@
       </c>
       <c r="J339" s="1"/>
     </row>
-    <row r="340" spans="1:10" ht="42.75">
+    <row r="340" spans="1:10" ht="40.5">
       <c r="A340" s="15" t="s">
         <v>359</v>
       </c>
@@ -70100,7 +70100,7 @@
       </c>
       <c r="J340" s="1"/>
     </row>
-    <row r="341" spans="1:10" ht="57">
+    <row r="341" spans="1:10" ht="54">
       <c r="A341" s="15" t="s">
         <v>360</v>
       </c>
@@ -70128,7 +70128,7 @@
       </c>
       <c r="J341" s="1"/>
     </row>
-    <row r="342" spans="1:10" ht="57">
+    <row r="342" spans="1:10" ht="54">
       <c r="A342" s="15" t="s">
         <v>361</v>
       </c>
@@ -70154,7 +70154,7 @@
       </c>
       <c r="J342" s="1"/>
     </row>
-    <row r="343" spans="1:10" ht="42.75">
+    <row r="343" spans="1:10" ht="40.5">
       <c r="A343" s="15" t="s">
         <v>362</v>
       </c>
@@ -70182,7 +70182,7 @@
       </c>
       <c r="J343" s="1"/>
     </row>
-    <row r="344" spans="1:10" ht="57">
+    <row r="344" spans="1:10" ht="54">
       <c r="A344" s="15" t="s">
         <v>363</v>
       </c>
@@ -70210,7 +70210,7 @@
       </c>
       <c r="J344" s="1"/>
     </row>
-    <row r="345" spans="1:10" ht="57">
+    <row r="345" spans="1:10" ht="54">
       <c r="A345" s="15" t="s">
         <v>364</v>
       </c>
@@ -70238,7 +70238,7 @@
       </c>
       <c r="J345" s="1"/>
     </row>
-    <row r="346" spans="1:10" ht="42.75">
+    <row r="346" spans="1:10" ht="40.5">
       <c r="A346" s="15" t="s">
         <v>365</v>
       </c>
@@ -70266,7 +70266,7 @@
       </c>
       <c r="J346" s="1"/>
     </row>
-    <row r="347" spans="1:10" ht="42.75">
+    <row r="347" spans="1:10" ht="40.5">
       <c r="A347" s="15" t="s">
         <v>366</v>
       </c>
@@ -70292,7 +70292,7 @@
       </c>
       <c r="J347" s="1"/>
     </row>
-    <row r="348" spans="1:10" ht="42.75">
+    <row r="348" spans="1:10" ht="40.5">
       <c r="A348" s="15" t="s">
         <v>367</v>
       </c>
@@ -70320,7 +70320,7 @@
       </c>
       <c r="J348" s="1"/>
     </row>
-    <row r="349" spans="1:10" ht="42.75">
+    <row r="349" spans="1:10" ht="40.5">
       <c r="A349" s="15" t="s">
         <v>368</v>
       </c>
@@ -70348,7 +70348,7 @@
       </c>
       <c r="J349" s="1"/>
     </row>
-    <row r="350" spans="1:10" ht="20.25">
+    <row r="350" spans="1:10" ht="18.75">
       <c r="A350" s="15" t="s">
         <v>369</v>
       </c>
@@ -70376,7 +70376,7 @@
       </c>
       <c r="J350" s="1"/>
     </row>
-    <row r="351" spans="1:10" ht="42.75">
+    <row r="351" spans="1:10" ht="40.5">
       <c r="A351" s="15" t="s">
         <v>370</v>
       </c>
@@ -70404,7 +70404,7 @@
       </c>
       <c r="J351" s="1"/>
     </row>
-    <row r="352" spans="1:10" ht="57">
+    <row r="352" spans="1:10" ht="54">
       <c r="A352" s="15" t="s">
         <v>371</v>
       </c>
@@ -70432,7 +70432,7 @@
       </c>
       <c r="J352" s="1"/>
     </row>
-    <row r="353" spans="1:10" ht="57">
+    <row r="353" spans="1:10" ht="54">
       <c r="A353" s="15" t="s">
         <v>372</v>
       </c>
@@ -70458,7 +70458,7 @@
       </c>
       <c r="J353" s="1"/>
     </row>
-    <row r="354" spans="1:10" ht="57">
+    <row r="354" spans="1:10" ht="54">
       <c r="A354" s="15" t="s">
         <v>373</v>
       </c>
@@ -70486,7 +70486,7 @@
       </c>
       <c r="J354" s="1"/>
     </row>
-    <row r="355" spans="1:10" ht="42.75">
+    <row r="355" spans="1:10" ht="40.5">
       <c r="A355" s="15" t="s">
         <v>374</v>
       </c>
@@ -70514,7 +70514,7 @@
       </c>
       <c r="J355" s="1"/>
     </row>
-    <row r="356" spans="1:10" ht="42.75">
+    <row r="356" spans="1:10" ht="40.5">
       <c r="A356" s="15" t="s">
         <v>375</v>
       </c>
@@ -70542,7 +70542,7 @@
       </c>
       <c r="J356" s="1"/>
     </row>
-    <row r="357" spans="1:10" ht="57">
+    <row r="357" spans="1:10" ht="54">
       <c r="A357" s="15" t="s">
         <v>376</v>
       </c>
@@ -70570,7 +70570,7 @@
       </c>
       <c r="J357" s="1"/>
     </row>
-    <row r="358" spans="1:10" ht="20.25">
+    <row r="358" spans="1:10" ht="18.75">
       <c r="A358" s="15" t="s">
         <v>377</v>
       </c>
@@ -70598,7 +70598,7 @@
       </c>
       <c r="J358" s="1"/>
     </row>
-    <row r="359" spans="1:10" ht="42.75">
+    <row r="359" spans="1:10" ht="40.5">
       <c r="A359" s="15" t="s">
         <v>378</v>
       </c>
@@ -70626,7 +70626,7 @@
       </c>
       <c r="J359" s="1"/>
     </row>
-    <row r="360" spans="1:10" ht="42.75">
+    <row r="360" spans="1:10" ht="40.5">
       <c r="A360" s="15" t="s">
         <v>379</v>
       </c>
@@ -70654,7 +70654,7 @@
       </c>
       <c r="J360" s="1"/>
     </row>
-    <row r="361" spans="1:10" ht="42.75">
+    <row r="361" spans="1:10" ht="27">
       <c r="A361" s="15" t="s">
         <v>380</v>
       </c>
@@ -70682,7 +70682,7 @@
       </c>
       <c r="J361" s="1"/>
     </row>
-    <row r="362" spans="1:10" ht="20.25">
+    <row r="362" spans="1:10" ht="18.75">
       <c r="A362" s="15" t="s">
         <v>381</v>
       </c>
@@ -70703,14 +70703,14 @@
         <v>21</v>
       </c>
       <c r="H362" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I362" s="13" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="J362" s="1"/>
     </row>
-    <row r="363" spans="1:10">
+    <row r="363" spans="1:10" ht="13.5">
       <c r="A363"/>
       <c r="B363"/>
       <c r="F363"/>
@@ -70719,7 +70719,7 @@
       <c r="I363"/>
       <c r="J363"/>
     </row>
-    <row r="364" spans="1:10">
+    <row r="364" spans="1:10" ht="13.5">
       <c r="A364"/>
       <c r="B364"/>
       <c r="F364"/>
@@ -70728,7 +70728,7 @@
       <c r="I364"/>
       <c r="J364"/>
     </row>
-    <row r="365" spans="1:10">
+    <row r="365" spans="1:10" ht="13.5">
       <c r="A365"/>
       <c r="B365"/>
       <c r="F365"/>
@@ -70737,7 +70737,7 @@
       <c r="I365"/>
       <c r="J365"/>
     </row>
-    <row r="366" spans="1:10">
+    <row r="366" spans="1:10" ht="13.5">
       <c r="A366"/>
       <c r="B366"/>
       <c r="F366"/>
@@ -70746,7 +70746,7 @@
       <c r="I366"/>
       <c r="J366"/>
     </row>
-    <row r="367" spans="1:10">
+    <row r="367" spans="1:10" ht="13.5">
       <c r="A367"/>
       <c r="B367"/>
       <c r="F367"/>
@@ -70755,7 +70755,7 @@
       <c r="I367"/>
       <c r="J367"/>
     </row>
-    <row r="368" spans="1:10">
+    <row r="368" spans="1:10" ht="13.5">
       <c r="A368"/>
       <c r="B368"/>
       <c r="F368"/>
@@ -70764,7 +70764,7 @@
       <c r="I368"/>
       <c r="J368"/>
     </row>
-    <row r="369" spans="1:10">
+    <row r="369" spans="1:10" ht="13.5">
       <c r="A369"/>
       <c r="B369"/>
       <c r="F369"/>
@@ -70773,7 +70773,7 @@
       <c r="I369"/>
       <c r="J369"/>
     </row>
-    <row r="370" spans="1:10">
+    <row r="370" spans="1:10" ht="13.5">
       <c r="A370"/>
       <c r="B370"/>
       <c r="F370"/>
@@ -70782,7 +70782,7 @@
       <c r="I370"/>
       <c r="J370"/>
     </row>
-    <row r="371" spans="1:10">
+    <row r="371" spans="1:10" ht="13.5">
       <c r="A371"/>
       <c r="B371"/>
       <c r="F371"/>
@@ -70791,7 +70791,7 @@
       <c r="I371"/>
       <c r="J371"/>
     </row>
-    <row r="372" spans="1:10">
+    <row r="372" spans="1:10" ht="13.5">
       <c r="A372"/>
       <c r="B372"/>
       <c r="F372"/>
@@ -70800,7 +70800,7 @@
       <c r="I372"/>
       <c r="J372"/>
     </row>
-    <row r="373" spans="1:10">
+    <row r="373" spans="1:10" ht="13.5">
       <c r="A373"/>
       <c r="B373"/>
       <c r="F373"/>
@@ -70809,7 +70809,7 @@
       <c r="I373"/>
       <c r="J373"/>
     </row>
-    <row r="374" spans="1:10">
+    <row r="374" spans="1:10" ht="13.5">
       <c r="A374"/>
       <c r="B374"/>
       <c r="F374"/>
@@ -70818,7 +70818,7 @@
       <c r="I374"/>
       <c r="J374"/>
     </row>
-    <row r="375" spans="1:10">
+    <row r="375" spans="1:10" ht="13.5">
       <c r="A375"/>
       <c r="B375"/>
       <c r="F375"/>
@@ -70827,7 +70827,7 @@
       <c r="I375"/>
       <c r="J375"/>
     </row>
-    <row r="376" spans="1:10">
+    <row r="376" spans="1:10" ht="13.5">
       <c r="A376"/>
       <c r="B376"/>
       <c r="F376"/>
@@ -70836,7 +70836,7 @@
       <c r="I376"/>
       <c r="J376"/>
     </row>
-    <row r="377" spans="1:10">
+    <row r="377" spans="1:10" ht="13.5">
       <c r="A377"/>
       <c r="B377"/>
       <c r="F377"/>
@@ -70845,7 +70845,7 @@
       <c r="I377"/>
       <c r="J377"/>
     </row>
-    <row r="378" spans="1:10">
+    <row r="378" spans="1:10" ht="13.5">
       <c r="A378"/>
       <c r="B378"/>
       <c r="F378"/>
@@ -70854,7 +70854,7 @@
       <c r="I378"/>
       <c r="J378"/>
     </row>
-    <row r="379" spans="1:10">
+    <row r="379" spans="1:10" ht="13.5">
       <c r="A379"/>
       <c r="B379"/>
       <c r="F379"/>
@@ -70863,7 +70863,7 @@
       <c r="I379"/>
       <c r="J379"/>
     </row>
-    <row r="380" spans="1:10">
+    <row r="380" spans="1:10" ht="13.5">
       <c r="A380"/>
       <c r="B380"/>
       <c r="F380"/>
@@ -70872,7 +70872,7 @@
       <c r="I380"/>
       <c r="J380"/>
     </row>
-    <row r="381" spans="1:10">
+    <row r="381" spans="1:10" ht="13.5">
       <c r="A381"/>
       <c r="B381"/>
       <c r="F381"/>
@@ -70881,7 +70881,7 @@
       <c r="I381"/>
       <c r="J381"/>
     </row>
-    <row r="382" spans="1:10">
+    <row r="382" spans="1:10" ht="13.5">
       <c r="A382"/>
       <c r="B382"/>
       <c r="F382"/>
@@ -70890,7 +70890,7 @@
       <c r="I382"/>
       <c r="J382"/>
     </row>
-    <row r="383" spans="1:10">
+    <row r="383" spans="1:10" ht="13.5">
       <c r="A383"/>
       <c r="B383"/>
       <c r="F383"/>
@@ -70899,7 +70899,7 @@
       <c r="I383"/>
       <c r="J383"/>
     </row>
-    <row r="384" spans="1:10">
+    <row r="384" spans="1:10" ht="13.5">
       <c r="A384"/>
       <c r="B384"/>
       <c r="F384"/>
@@ -70908,7 +70908,7 @@
       <c r="I384"/>
       <c r="J384"/>
     </row>
-    <row r="385" spans="1:10">
+    <row r="385" spans="1:10" ht="13.5">
       <c r="A385"/>
       <c r="B385"/>
       <c r="F385"/>
@@ -70917,7 +70917,7 @@
       <c r="I385"/>
       <c r="J385"/>
     </row>
-    <row r="386" spans="1:10">
+    <row r="386" spans="1:10" ht="13.5">
       <c r="A386"/>
       <c r="B386"/>
       <c r="F386"/>
@@ -70926,7 +70926,7 @@
       <c r="I386"/>
       <c r="J386"/>
     </row>
-    <row r="387" spans="1:10">
+    <row r="387" spans="1:10" ht="13.5">
       <c r="A387"/>
       <c r="B387"/>
       <c r="F387"/>
@@ -70935,7 +70935,7 @@
       <c r="I387"/>
       <c r="J387"/>
     </row>
-    <row r="388" spans="1:10">
+    <row r="388" spans="1:10" ht="13.5">
       <c r="A388"/>
       <c r="B388"/>
       <c r="F388"/>
@@ -70944,7 +70944,7 @@
       <c r="I388"/>
       <c r="J388"/>
     </row>
-    <row r="389" spans="1:10">
+    <row r="389" spans="1:10" ht="13.5">
       <c r="A389"/>
       <c r="B389"/>
       <c r="F389"/>
@@ -70953,7 +70953,7 @@
       <c r="I389"/>
       <c r="J389"/>
     </row>
-    <row r="390" spans="1:10">
+    <row r="390" spans="1:10" ht="13.5">
       <c r="A390"/>
       <c r="B390"/>
       <c r="F390"/>
@@ -70962,7 +70962,7 @@
       <c r="I390"/>
       <c r="J390"/>
     </row>
-    <row r="391" spans="1:10">
+    <row r="391" spans="1:10" ht="13.5">
       <c r="A391"/>
       <c r="B391"/>
       <c r="F391"/>
@@ -70971,7 +70971,7 @@
       <c r="I391"/>
       <c r="J391"/>
     </row>
-    <row r="392" spans="1:10">
+    <row r="392" spans="1:10" ht="13.5">
       <c r="A392"/>
       <c r="B392"/>
       <c r="F392"/>
@@ -70980,7 +70980,7 @@
       <c r="I392"/>
       <c r="J392"/>
     </row>
-    <row r="393" spans="1:10">
+    <row r="393" spans="1:10" ht="13.5">
       <c r="A393"/>
       <c r="B393"/>
       <c r="F393"/>
@@ -70989,7 +70989,7 @@
       <c r="I393"/>
       <c r="J393"/>
     </row>
-    <row r="394" spans="1:10">
+    <row r="394" spans="1:10" ht="13.5">
       <c r="A394"/>
       <c r="B394"/>
       <c r="F394"/>
@@ -70998,7 +70998,7 @@
       <c r="I394"/>
       <c r="J394"/>
     </row>
-    <row r="395" spans="1:10">
+    <row r="395" spans="1:10" ht="13.5">
       <c r="A395"/>
       <c r="B395"/>
       <c r="F395"/>
@@ -71007,7 +71007,7 @@
       <c r="I395"/>
       <c r="J395"/>
     </row>
-    <row r="396" spans="1:10">
+    <row r="396" spans="1:10" ht="13.5">
       <c r="A396"/>
       <c r="B396"/>
       <c r="F396"/>
@@ -71016,7 +71016,7 @@
       <c r="I396"/>
       <c r="J396"/>
     </row>
-    <row r="397" spans="1:10">
+    <row r="397" spans="1:10" ht="13.5">
       <c r="A397"/>
       <c r="B397"/>
       <c r="F397"/>
@@ -71025,7 +71025,7 @@
       <c r="I397"/>
       <c r="J397"/>
     </row>
-    <row r="398" spans="1:10">
+    <row r="398" spans="1:10" ht="13.5">
       <c r="A398"/>
       <c r="B398"/>
       <c r="F398"/>
@@ -71034,7 +71034,7 @@
       <c r="I398"/>
       <c r="J398"/>
     </row>
-    <row r="399" spans="1:10">
+    <row r="399" spans="1:10" ht="13.5">
       <c r="A399"/>
       <c r="B399"/>
       <c r="F399"/>
@@ -71043,7 +71043,7 @@
       <c r="I399"/>
       <c r="J399"/>
     </row>
-    <row r="400" spans="1:10">
+    <row r="400" spans="1:10" ht="13.5">
       <c r="A400"/>
       <c r="B400"/>
       <c r="F400"/>
@@ -71052,7 +71052,7 @@
       <c r="I400"/>
       <c r="J400"/>
     </row>
-    <row r="401" spans="1:10">
+    <row r="401" spans="1:10" ht="13.5">
       <c r="A401"/>
       <c r="B401"/>
       <c r="F401"/>
@@ -71061,7 +71061,7 @@
       <c r="I401"/>
       <c r="J401"/>
     </row>
-    <row r="402" spans="1:10">
+    <row r="402" spans="1:10" ht="13.5">
       <c r="A402"/>
       <c r="B402"/>
       <c r="F402"/>
@@ -71070,7 +71070,7 @@
       <c r="I402"/>
       <c r="J402"/>
     </row>
-    <row r="403" spans="1:10">
+    <row r="403" spans="1:10" ht="13.5">
       <c r="A403"/>
       <c r="B403"/>
       <c r="F403"/>
@@ -71079,7 +71079,7 @@
       <c r="I403"/>
       <c r="J403"/>
     </row>
-    <row r="404" spans="1:10">
+    <row r="404" spans="1:10" ht="13.5">
       <c r="A404"/>
       <c r="B404"/>
       <c r="F404"/>
@@ -71088,7 +71088,7 @@
       <c r="I404"/>
       <c r="J404"/>
     </row>
-    <row r="405" spans="1:10">
+    <row r="405" spans="1:10" ht="13.5">
       <c r="A405"/>
       <c r="B405"/>
       <c r="F405"/>
@@ -71097,7 +71097,7 @@
       <c r="I405"/>
       <c r="J405"/>
     </row>
-    <row r="406" spans="1:10">
+    <row r="406" spans="1:10" ht="13.5">
       <c r="A406"/>
       <c r="B406"/>
       <c r="F406"/>
@@ -71106,7 +71106,7 @@
       <c r="I406"/>
       <c r="J406"/>
     </row>
-    <row r="407" spans="1:10">
+    <row r="407" spans="1:10" ht="13.5">
       <c r="A407"/>
       <c r="B407"/>
       <c r="F407"/>
@@ -71115,7 +71115,7 @@
       <c r="I407"/>
       <c r="J407"/>
     </row>
-    <row r="408" spans="1:10">
+    <row r="408" spans="1:10" ht="13.5">
       <c r="A408"/>
       <c r="B408"/>
       <c r="F408"/>
@@ -71124,7 +71124,7 @@
       <c r="I408"/>
       <c r="J408"/>
     </row>
-    <row r="409" spans="1:10">
+    <row r="409" spans="1:10" ht="13.5">
       <c r="A409"/>
       <c r="B409"/>
       <c r="F409"/>
@@ -71133,7 +71133,7 @@
       <c r="I409"/>
       <c r="J409"/>
     </row>
-    <row r="410" spans="1:10">
+    <row r="410" spans="1:10" ht="13.5">
       <c r="A410"/>
       <c r="B410"/>
       <c r="F410"/>
@@ -71142,7 +71142,7 @@
       <c r="I410"/>
       <c r="J410"/>
     </row>
-    <row r="411" spans="1:10">
+    <row r="411" spans="1:10" ht="13.5">
       <c r="A411"/>
       <c r="B411"/>
       <c r="F411"/>
@@ -71151,7 +71151,7 @@
       <c r="I411"/>
       <c r="J411"/>
     </row>
-    <row r="412" spans="1:10">
+    <row r="412" spans="1:10" ht="13.5">
       <c r="A412"/>
       <c r="B412"/>
       <c r="F412"/>
@@ -71160,7 +71160,7 @@
       <c r="I412"/>
       <c r="J412"/>
     </row>
-    <row r="413" spans="1:10">
+    <row r="413" spans="1:10" ht="13.5">
       <c r="A413"/>
       <c r="B413"/>
       <c r="F413"/>
@@ -71169,7 +71169,7 @@
       <c r="I413"/>
       <c r="J413"/>
     </row>
-    <row r="414" spans="1:10">
+    <row r="414" spans="1:10" ht="13.5">
       <c r="A414"/>
       <c r="B414"/>
       <c r="F414"/>
@@ -71178,7 +71178,7 @@
       <c r="I414"/>
       <c r="J414"/>
     </row>
-    <row r="415" spans="1:10">
+    <row r="415" spans="1:10" ht="13.5">
       <c r="A415"/>
       <c r="B415"/>
       <c r="F415"/>
@@ -71187,7 +71187,7 @@
       <c r="I415"/>
       <c r="J415"/>
     </row>
-    <row r="416" spans="1:10">
+    <row r="416" spans="1:10" ht="13.5">
       <c r="A416"/>
       <c r="B416"/>
       <c r="F416"/>
@@ -71196,7 +71196,7 @@
       <c r="I416"/>
       <c r="J416"/>
     </row>
-    <row r="417" spans="1:10">
+    <row r="417" spans="1:10" ht="13.5">
       <c r="A417"/>
       <c r="B417"/>
       <c r="F417"/>
@@ -71205,7 +71205,7 @@
       <c r="I417"/>
       <c r="J417"/>
     </row>
-    <row r="418" spans="1:10">
+    <row r="418" spans="1:10" ht="13.5">
       <c r="A418"/>
       <c r="B418"/>
       <c r="F418"/>
@@ -71214,7 +71214,7 @@
       <c r="I418"/>
       <c r="J418"/>
     </row>
-    <row r="419" spans="1:10">
+    <row r="419" spans="1:10" ht="13.5">
       <c r="A419"/>
       <c r="B419"/>
       <c r="F419"/>
@@ -71223,7 +71223,7 @@
       <c r="I419"/>
       <c r="J419"/>
     </row>
-    <row r="420" spans="1:10">
+    <row r="420" spans="1:10" ht="13.5">
       <c r="A420"/>
       <c r="B420"/>
       <c r="F420"/>
@@ -71232,7 +71232,7 @@
       <c r="I420"/>
       <c r="J420"/>
     </row>
-    <row r="421" spans="1:10">
+    <row r="421" spans="1:10" ht="13.5">
       <c r="A421"/>
       <c r="B421"/>
       <c r="F421"/>
@@ -71241,7 +71241,7 @@
       <c r="I421"/>
       <c r="J421"/>
     </row>
-    <row r="422" spans="1:10">
+    <row r="422" spans="1:10" ht="13.5">
       <c r="A422"/>
       <c r="B422"/>
       <c r="F422"/>
@@ -71250,7 +71250,7 @@
       <c r="I422"/>
       <c r="J422"/>
     </row>
-    <row r="423" spans="1:10">
+    <row r="423" spans="1:10" ht="13.5">
       <c r="A423"/>
       <c r="B423"/>
       <c r="F423"/>
@@ -71259,7 +71259,7 @@
       <c r="I423"/>
       <c r="J423"/>
     </row>
-    <row r="424" spans="1:10">
+    <row r="424" spans="1:10" ht="13.5">
       <c r="A424"/>
       <c r="B424"/>
       <c r="F424"/>
@@ -71268,7 +71268,7 @@
       <c r="I424"/>
       <c r="J424"/>
     </row>
-    <row r="425" spans="1:10">
+    <row r="425" spans="1:10" ht="13.5">
       <c r="A425"/>
       <c r="B425"/>
       <c r="F425"/>
@@ -71277,7 +71277,7 @@
       <c r="I425"/>
       <c r="J425"/>
     </row>
-    <row r="426" spans="1:10">
+    <row r="426" spans="1:10" ht="13.5">
       <c r="A426"/>
       <c r="B426"/>
       <c r="F426"/>
@@ -71286,7 +71286,7 @@
       <c r="I426"/>
       <c r="J426"/>
     </row>
-    <row r="427" spans="1:10">
+    <row r="427" spans="1:10" ht="13.5">
       <c r="A427"/>
       <c r="B427"/>
       <c r="F427"/>
@@ -71295,7 +71295,7 @@
       <c r="I427"/>
       <c r="J427"/>
     </row>
-    <row r="428" spans="1:10">
+    <row r="428" spans="1:10" ht="13.5">
       <c r="A428"/>
       <c r="B428"/>
       <c r="F428"/>
@@ -71304,7 +71304,7 @@
       <c r="I428"/>
       <c r="J428"/>
     </row>
-    <row r="429" spans="1:10">
+    <row r="429" spans="1:10" ht="13.5">
       <c r="A429"/>
       <c r="B429"/>
       <c r="F429"/>
@@ -71313,7 +71313,7 @@
       <c r="I429"/>
       <c r="J429"/>
     </row>
-    <row r="430" spans="1:10">
+    <row r="430" spans="1:10" ht="13.5">
       <c r="A430"/>
       <c r="B430"/>
       <c r="F430"/>
@@ -71322,7 +71322,7 @@
       <c r="I430"/>
       <c r="J430"/>
     </row>
-    <row r="431" spans="1:10">
+    <row r="431" spans="1:10" ht="13.5">
       <c r="A431"/>
       <c r="B431"/>
       <c r="F431"/>
@@ -71331,7 +71331,7 @@
       <c r="I431"/>
       <c r="J431"/>
     </row>
-    <row r="432" spans="1:10">
+    <row r="432" spans="1:10" ht="13.5">
       <c r="A432"/>
       <c r="B432"/>
       <c r="F432"/>
@@ -71340,7 +71340,7 @@
       <c r="I432"/>
       <c r="J432"/>
     </row>
-    <row r="433" spans="1:10">
+    <row r="433" spans="1:10" ht="13.5">
       <c r="A433"/>
       <c r="B433"/>
       <c r="F433"/>
@@ -71349,7 +71349,7 @@
       <c r="I433"/>
       <c r="J433"/>
     </row>
-    <row r="434" spans="1:10">
+    <row r="434" spans="1:10" ht="13.5">
       <c r="A434"/>
       <c r="B434"/>
       <c r="F434"/>
@@ -71358,7 +71358,7 @@
       <c r="I434"/>
       <c r="J434"/>
     </row>
-    <row r="435" spans="1:10">
+    <row r="435" spans="1:10" ht="13.5">
       <c r="A435"/>
       <c r="B435"/>
       <c r="F435"/>
@@ -71367,7 +71367,7 @@
       <c r="I435"/>
       <c r="J435"/>
     </row>
-    <row r="436" spans="1:10">
+    <row r="436" spans="1:10" ht="13.5">
       <c r="A436"/>
       <c r="B436"/>
       <c r="F436"/>
@@ -71376,7 +71376,7 @@
       <c r="I436"/>
       <c r="J436"/>
     </row>
-    <row r="437" spans="1:10">
+    <row r="437" spans="1:10" ht="13.5">
       <c r="A437"/>
       <c r="B437"/>
       <c r="F437"/>
@@ -71385,7 +71385,7 @@
       <c r="I437"/>
       <c r="J437"/>
     </row>
-    <row r="438" spans="1:10">
+    <row r="438" spans="1:10" ht="13.5">
       <c r="A438"/>
       <c r="B438"/>
       <c r="F438"/>
@@ -71394,7 +71394,7 @@
       <c r="I438"/>
       <c r="J438"/>
     </row>
-    <row r="439" spans="1:10">
+    <row r="439" spans="1:10" ht="13.5">
       <c r="A439"/>
       <c r="B439"/>
       <c r="F439"/>
@@ -71403,7 +71403,7 @@
       <c r="I439"/>
       <c r="J439"/>
     </row>
-    <row r="440" spans="1:10">
+    <row r="440" spans="1:10" ht="13.5">
       <c r="A440"/>
       <c r="B440"/>
       <c r="F440"/>
@@ -71412,7 +71412,7 @@
       <c r="I440"/>
       <c r="J440"/>
     </row>
-    <row r="441" spans="1:10">
+    <row r="441" spans="1:10" ht="13.5">
       <c r="A441"/>
       <c r="B441"/>
       <c r="F441"/>
@@ -71421,7 +71421,7 @@
       <c r="I441"/>
       <c r="J441"/>
     </row>
-    <row r="442" spans="1:10">
+    <row r="442" spans="1:10" ht="13.5">
       <c r="A442"/>
       <c r="B442"/>
       <c r="F442"/>
@@ -71430,7 +71430,7 @@
       <c r="I442"/>
       <c r="J442"/>
     </row>
-    <row r="443" spans="1:10">
+    <row r="443" spans="1:10" ht="13.5">
       <c r="A443"/>
       <c r="B443"/>
       <c r="F443"/>
@@ -71439,7 +71439,7 @@
       <c r="I443"/>
       <c r="J443"/>
     </row>
-    <row r="444" spans="1:10">
+    <row r="444" spans="1:10" ht="13.5">
       <c r="A444"/>
       <c r="B444"/>
       <c r="F444"/>
@@ -71448,7 +71448,7 @@
       <c r="I444"/>
       <c r="J444"/>
     </row>
-    <row r="445" spans="1:10">
+    <row r="445" spans="1:10" ht="13.5">
       <c r="A445"/>
       <c r="B445"/>
       <c r="F445"/>
@@ -71457,7 +71457,7 @@
       <c r="I445"/>
       <c r="J445"/>
     </row>
-    <row r="446" spans="1:10">
+    <row r="446" spans="1:10" ht="13.5">
       <c r="A446"/>
       <c r="B446"/>
       <c r="F446"/>
@@ -71466,7 +71466,7 @@
       <c r="I446"/>
       <c r="J446"/>
     </row>
-    <row r="447" spans="1:10">
+    <row r="447" spans="1:10" ht="13.5">
       <c r="A447"/>
       <c r="B447"/>
       <c r="F447"/>
@@ -71475,7 +71475,7 @@
       <c r="I447"/>
       <c r="J447"/>
     </row>
-    <row r="448" spans="1:10">
+    <row r="448" spans="1:10" ht="13.5">
       <c r="A448"/>
       <c r="B448"/>
       <c r="F448"/>
@@ -71484,7 +71484,7 @@
       <c r="I448"/>
       <c r="J448"/>
     </row>
-    <row r="449" spans="1:10">
+    <row r="449" spans="1:10" ht="13.5">
       <c r="A449"/>
       <c r="B449"/>
       <c r="F449"/>
@@ -71493,7 +71493,7 @@
       <c r="I449"/>
       <c r="J449"/>
     </row>
-    <row r="450" spans="1:10">
+    <row r="450" spans="1:10" ht="13.5">
       <c r="A450"/>
       <c r="B450"/>
       <c r="F450"/>
@@ -71502,7 +71502,7 @@
       <c r="I450"/>
       <c r="J450"/>
     </row>
-    <row r="451" spans="1:10">
+    <row r="451" spans="1:10" ht="13.5">
       <c r="A451"/>
       <c r="B451"/>
       <c r="F451"/>
@@ -71511,7 +71511,7 @@
       <c r="I451"/>
       <c r="J451"/>
     </row>
-    <row r="452" spans="1:10">
+    <row r="452" spans="1:10" ht="13.5">
       <c r="A452"/>
       <c r="B452"/>
       <c r="F452"/>
@@ -71520,7 +71520,7 @@
       <c r="I452"/>
       <c r="J452"/>
     </row>
-    <row r="453" spans="1:10">
+    <row r="453" spans="1:10" ht="13.5">
       <c r="A453"/>
       <c r="B453"/>
       <c r="F453"/>
@@ -71529,7 +71529,7 @@
       <c r="I453"/>
       <c r="J453"/>
     </row>
-    <row r="454" spans="1:10">
+    <row r="454" spans="1:10" ht="13.5">
       <c r="A454"/>
       <c r="B454"/>
       <c r="F454"/>
@@ -71538,7 +71538,7 @@
       <c r="I454"/>
       <c r="J454"/>
     </row>
-    <row r="455" spans="1:10">
+    <row r="455" spans="1:10" ht="13.5">
       <c r="A455"/>
       <c r="B455"/>
       <c r="F455"/>
@@ -71547,7 +71547,7 @@
       <c r="I455"/>
       <c r="J455"/>
     </row>
-    <row r="456" spans="1:10">
+    <row r="456" spans="1:10" ht="13.5">
       <c r="A456"/>
       <c r="B456"/>
       <c r="F456"/>
@@ -71556,7 +71556,7 @@
       <c r="I456"/>
       <c r="J456"/>
     </row>
-    <row r="457" spans="1:10">
+    <row r="457" spans="1:10" ht="13.5">
       <c r="A457"/>
       <c r="B457"/>
       <c r="F457"/>
@@ -71565,7 +71565,7 @@
       <c r="I457"/>
       <c r="J457"/>
     </row>
-    <row r="458" spans="1:10">
+    <row r="458" spans="1:10" ht="13.5">
       <c r="A458"/>
       <c r="B458"/>
       <c r="F458"/>
@@ -71574,7 +71574,7 @@
       <c r="I458"/>
       <c r="J458"/>
     </row>
-    <row r="459" spans="1:10">
+    <row r="459" spans="1:10" ht="13.5">
       <c r="A459"/>
       <c r="B459"/>
       <c r="F459"/>
@@ -71583,7 +71583,7 @@
       <c r="I459"/>
       <c r="J459"/>
     </row>
-    <row r="460" spans="1:10">
+    <row r="460" spans="1:10" ht="13.5">
       <c r="A460"/>
       <c r="B460"/>
       <c r="F460"/>
@@ -71592,7 +71592,7 @@
       <c r="I460"/>
       <c r="J460"/>
     </row>
-    <row r="461" spans="1:10">
+    <row r="461" spans="1:10" ht="13.5">
       <c r="A461"/>
       <c r="B461"/>
       <c r="F461"/>
@@ -71601,7 +71601,7 @@
       <c r="I461"/>
       <c r="J461"/>
     </row>
-    <row r="462" spans="1:10">
+    <row r="462" spans="1:10" ht="13.5">
       <c r="A462"/>
       <c r="B462"/>
       <c r="F462"/>
@@ -71610,7 +71610,7 @@
       <c r="I462"/>
       <c r="J462"/>
     </row>
-    <row r="463" spans="1:10">
+    <row r="463" spans="1:10" ht="13.5">
       <c r="A463"/>
       <c r="B463"/>
       <c r="F463"/>
@@ -71619,7 +71619,7 @@
       <c r="I463"/>
       <c r="J463"/>
     </row>
-    <row r="464" spans="1:10">
+    <row r="464" spans="1:10" ht="13.5">
       <c r="A464"/>
       <c r="B464"/>
       <c r="F464"/>
@@ -71628,7 +71628,7 @@
       <c r="I464"/>
       <c r="J464"/>
     </row>
-    <row r="465" spans="1:10">
+    <row r="465" spans="1:10" ht="13.5">
       <c r="A465"/>
       <c r="B465"/>
       <c r="F465"/>
@@ -71637,7 +71637,7 @@
       <c r="I465"/>
       <c r="J465"/>
     </row>
-    <row r="466" spans="1:10">
+    <row r="466" spans="1:10" ht="13.5">
       <c r="A466"/>
       <c r="B466"/>
       <c r="F466"/>
@@ -71646,7 +71646,7 @@
       <c r="I466"/>
       <c r="J466"/>
     </row>
-    <row r="467" spans="1:10">
+    <row r="467" spans="1:10" ht="13.5">
       <c r="A467"/>
       <c r="B467"/>
       <c r="F467"/>
@@ -71655,7 +71655,7 @@
       <c r="I467"/>
       <c r="J467"/>
     </row>
-    <row r="468" spans="1:10">
+    <row r="468" spans="1:10" ht="13.5">
       <c r="A468"/>
       <c r="B468"/>
       <c r="F468"/>
@@ -71664,7 +71664,7 @@
       <c r="I468"/>
       <c r="J468"/>
     </row>
-    <row r="469" spans="1:10">
+    <row r="469" spans="1:10" ht="13.5">
       <c r="A469"/>
       <c r="B469"/>
       <c r="F469"/>
@@ -71673,7 +71673,7 @@
       <c r="I469"/>
       <c r="J469"/>
     </row>
-    <row r="470" spans="1:10">
+    <row r="470" spans="1:10" ht="13.5">
       <c r="A470"/>
       <c r="B470"/>
       <c r="F470"/>
@@ -71682,7 +71682,7 @@
       <c r="I470"/>
       <c r="J470"/>
     </row>
-    <row r="471" spans="1:10">
+    <row r="471" spans="1:10" ht="13.5">
       <c r="A471"/>
       <c r="B471"/>
       <c r="F471"/>
@@ -71691,7 +71691,7 @@
       <c r="I471"/>
       <c r="J471"/>
     </row>
-    <row r="472" spans="1:10">
+    <row r="472" spans="1:10" ht="13.5">
       <c r="A472"/>
       <c r="B472"/>
       <c r="F472"/>
@@ -71700,7 +71700,7 @@
       <c r="I472"/>
       <c r="J472"/>
     </row>
-    <row r="473" spans="1:10">
+    <row r="473" spans="1:10" ht="13.5">
       <c r="A473"/>
       <c r="B473"/>
       <c r="F473"/>
@@ -71709,7 +71709,7 @@
       <c r="I473"/>
       <c r="J473"/>
     </row>
-    <row r="474" spans="1:10">
+    <row r="474" spans="1:10" ht="13.5">
       <c r="A474"/>
       <c r="B474"/>
       <c r="F474"/>
@@ -71718,7 +71718,7 @@
       <c r="I474"/>
       <c r="J474"/>
     </row>
-    <row r="475" spans="1:10">
+    <row r="475" spans="1:10" ht="13.5">
       <c r="A475"/>
       <c r="B475"/>
       <c r="F475"/>
@@ -71727,7 +71727,7 @@
       <c r="I475"/>
       <c r="J475"/>
     </row>
-    <row r="476" spans="1:10">
+    <row r="476" spans="1:10" ht="13.5">
       <c r="A476"/>
       <c r="B476"/>
       <c r="F476"/>
@@ -71736,7 +71736,7 @@
       <c r="I476"/>
       <c r="J476"/>
     </row>
-    <row r="477" spans="1:10">
+    <row r="477" spans="1:10" ht="13.5">
       <c r="A477"/>
       <c r="B477"/>
       <c r="F477"/>
@@ -71745,7 +71745,7 @@
       <c r="I477"/>
       <c r="J477"/>
     </row>
-    <row r="478" spans="1:10">
+    <row r="478" spans="1:10" ht="13.5">
       <c r="A478"/>
       <c r="B478"/>
       <c r="F478"/>
@@ -71754,7 +71754,7 @@
       <c r="I478"/>
       <c r="J478"/>
     </row>
-    <row r="479" spans="1:10">
+    <row r="479" spans="1:10" ht="13.5">
       <c r="A479"/>
       <c r="B479"/>
       <c r="F479"/>
@@ -71763,7 +71763,7 @@
       <c r="I479"/>
       <c r="J479"/>
     </row>
-    <row r="480" spans="1:10">
+    <row r="480" spans="1:10" ht="13.5">
       <c r="A480"/>
       <c r="B480"/>
       <c r="F480"/>
@@ -71772,7 +71772,7 @@
       <c r="I480"/>
       <c r="J480"/>
     </row>
-    <row r="481" spans="1:10">
+    <row r="481" spans="1:10" ht="13.5">
       <c r="A481"/>
       <c r="B481"/>
       <c r="F481"/>
@@ -71781,7 +71781,7 @@
       <c r="I481"/>
       <c r="J481"/>
     </row>
-    <row r="482" spans="1:10">
+    <row r="482" spans="1:10" ht="13.5">
       <c r="A482"/>
       <c r="B482"/>
       <c r="F482"/>
@@ -71790,7 +71790,7 @@
       <c r="I482"/>
       <c r="J482"/>
     </row>
-    <row r="483" spans="1:10">
+    <row r="483" spans="1:10" ht="13.5">
       <c r="A483"/>
       <c r="B483"/>
       <c r="F483"/>
@@ -71799,7 +71799,7 @@
       <c r="I483"/>
       <c r="J483"/>
     </row>
-    <row r="484" spans="1:10">
+    <row r="484" spans="1:10" ht="13.5">
       <c r="A484"/>
       <c r="B484"/>
       <c r="F484"/>
@@ -71808,7 +71808,7 @@
       <c r="I484"/>
       <c r="J484"/>
     </row>
-    <row r="485" spans="1:10">
+    <row r="485" spans="1:10" ht="13.5">
       <c r="A485"/>
       <c r="B485"/>
       <c r="F485"/>
@@ -71817,7 +71817,7 @@
       <c r="I485"/>
       <c r="J485"/>
     </row>
-    <row r="486" spans="1:10">
+    <row r="486" spans="1:10" ht="13.5">
       <c r="A486"/>
       <c r="B486"/>
       <c r="F486"/>
@@ -71826,7 +71826,7 @@
       <c r="I486"/>
       <c r="J486"/>
     </row>
-    <row r="487" spans="1:10">
+    <row r="487" spans="1:10" ht="13.5">
       <c r="A487"/>
       <c r="B487"/>
       <c r="F487"/>
@@ -71835,7 +71835,7 @@
       <c r="I487"/>
       <c r="J487"/>
     </row>
-    <row r="488" spans="1:10">
+    <row r="488" spans="1:10" ht="13.5">
       <c r="A488"/>
       <c r="B488"/>
       <c r="F488"/>
@@ -71844,7 +71844,7 @@
       <c r="I488"/>
       <c r="J488"/>
     </row>
-    <row r="489" spans="1:10">
+    <row r="489" spans="1:10" ht="13.5">
       <c r="A489"/>
       <c r="B489"/>
       <c r="F489"/>
@@ -71853,7 +71853,7 @@
       <c r="I489"/>
       <c r="J489"/>
     </row>
-    <row r="490" spans="1:10">
+    <row r="490" spans="1:10" ht="13.5">
       <c r="A490"/>
       <c r="B490"/>
       <c r="F490"/>
@@ -71862,7 +71862,7 @@
       <c r="I490"/>
       <c r="J490"/>
     </row>
-    <row r="491" spans="1:10">
+    <row r="491" spans="1:10" ht="13.5">
       <c r="A491"/>
       <c r="B491"/>
       <c r="F491"/>
@@ -71871,7 +71871,7 @@
       <c r="I491"/>
       <c r="J491"/>
     </row>
-    <row r="492" spans="1:10">
+    <row r="492" spans="1:10" ht="13.5">
       <c r="A492"/>
       <c r="B492"/>
       <c r="F492"/>
@@ -71880,7 +71880,7 @@
       <c r="I492"/>
       <c r="J492"/>
     </row>
-    <row r="493" spans="1:10">
+    <row r="493" spans="1:10" ht="13.5">
       <c r="A493"/>
       <c r="B493"/>
       <c r="F493"/>
@@ -71889,7 +71889,7 @@
       <c r="I493"/>
       <c r="J493"/>
     </row>
-    <row r="494" spans="1:10">
+    <row r="494" spans="1:10" ht="13.5">
       <c r="A494"/>
       <c r="B494"/>
       <c r="F494"/>
@@ -71898,7 +71898,7 @@
       <c r="I494"/>
       <c r="J494"/>
     </row>
-    <row r="495" spans="1:10">
+    <row r="495" spans="1:10" ht="13.5">
       <c r="A495"/>
       <c r="B495"/>
       <c r="F495"/>
@@ -71907,7 +71907,7 @@
       <c r="I495"/>
       <c r="J495"/>
     </row>
-    <row r="496" spans="1:10">
+    <row r="496" spans="1:10" ht="13.5">
       <c r="A496"/>
       <c r="B496"/>
       <c r="F496"/>
@@ -71916,7 +71916,7 @@
       <c r="I496"/>
       <c r="J496"/>
     </row>
-    <row r="497" spans="1:10">
+    <row r="497" spans="1:10" ht="13.5">
       <c r="A497"/>
       <c r="B497"/>
       <c r="F497"/>
@@ -71925,7 +71925,7 @@
       <c r="I497"/>
       <c r="J497"/>
     </row>
-    <row r="498" spans="1:10">
+    <row r="498" spans="1:10" ht="13.5">
       <c r="A498"/>
       <c r="B498"/>
       <c r="F498"/>
@@ -71934,7 +71934,7 @@
       <c r="I498"/>
       <c r="J498"/>
     </row>
-    <row r="499" spans="1:10">
+    <row r="499" spans="1:10" ht="13.5">
       <c r="A499"/>
       <c r="B499"/>
       <c r="F499"/>
@@ -71943,7 +71943,7 @@
       <c r="I499"/>
       <c r="J499"/>
     </row>
-    <row r="500" spans="1:10">
+    <row r="500" spans="1:10" ht="13.5">
       <c r="A500"/>
       <c r="B500"/>
       <c r="F500"/>
@@ -71952,7 +71952,7 @@
       <c r="I500"/>
       <c r="J500"/>
     </row>
-    <row r="501" spans="1:10">
+    <row r="501" spans="1:10" ht="13.5">
       <c r="A501"/>
       <c r="B501"/>
       <c r="F501"/>
@@ -71961,7 +71961,7 @@
       <c r="I501"/>
       <c r="J501"/>
     </row>
-    <row r="502" spans="1:10">
+    <row r="502" spans="1:10" ht="13.5">
       <c r="A502"/>
       <c r="B502"/>
       <c r="F502"/>
@@ -71970,7 +71970,7 @@
       <c r="I502"/>
       <c r="J502"/>
     </row>
-    <row r="503" spans="1:10">
+    <row r="503" spans="1:10" ht="13.5">
       <c r="A503"/>
       <c r="B503"/>
       <c r="F503"/>
@@ -71979,7 +71979,7 @@
       <c r="I503"/>
       <c r="J503"/>
     </row>
-    <row r="504" spans="1:10">
+    <row r="504" spans="1:10" ht="13.5">
       <c r="A504"/>
       <c r="B504"/>
       <c r="F504"/>
@@ -71988,7 +71988,7 @@
       <c r="I504"/>
       <c r="J504"/>
     </row>
-    <row r="505" spans="1:10">
+    <row r="505" spans="1:10" ht="13.5">
       <c r="A505"/>
       <c r="B505"/>
       <c r="F505"/>
@@ -71997,7 +71997,7 @@
       <c r="I505"/>
       <c r="J505"/>
     </row>
-    <row r="506" spans="1:10">
+    <row r="506" spans="1:10" ht="13.5">
       <c r="A506"/>
       <c r="B506"/>
       <c r="F506"/>
@@ -72006,7 +72006,7 @@
       <c r="I506"/>
       <c r="J506"/>
     </row>
-    <row r="507" spans="1:10">
+    <row r="507" spans="1:10" ht="13.5">
       <c r="A507"/>
       <c r="B507"/>
       <c r="F507"/>
@@ -72015,7 +72015,7 @@
       <c r="I507"/>
       <c r="J507"/>
     </row>
-    <row r="508" spans="1:10">
+    <row r="508" spans="1:10" ht="13.5">
       <c r="A508"/>
       <c r="B508"/>
       <c r="F508"/>
@@ -72024,7 +72024,7 @@
       <c r="I508"/>
       <c r="J508"/>
     </row>
-    <row r="509" spans="1:10">
+    <row r="509" spans="1:10" ht="13.5">
       <c r="A509"/>
       <c r="B509"/>
       <c r="F509"/>
@@ -72033,7 +72033,7 @@
       <c r="I509"/>
       <c r="J509"/>
     </row>
-    <row r="510" spans="1:10">
+    <row r="510" spans="1:10" ht="13.5">
       <c r="A510"/>
       <c r="B510"/>
       <c r="F510"/>
@@ -72042,7 +72042,7 @@
       <c r="I510"/>
       <c r="J510"/>
     </row>
-    <row r="511" spans="1:10">
+    <row r="511" spans="1:10" ht="13.5">
       <c r="A511"/>
       <c r="B511"/>
       <c r="F511"/>
@@ -72051,7 +72051,7 @@
       <c r="I511"/>
       <c r="J511"/>
     </row>
-    <row r="512" spans="1:10">
+    <row r="512" spans="1:10" ht="13.5">
       <c r="A512"/>
       <c r="B512"/>
       <c r="F512"/>
@@ -72060,7 +72060,7 @@
       <c r="I512"/>
       <c r="J512"/>
     </row>
-    <row r="513" spans="1:10">
+    <row r="513" spans="1:10" ht="13.5">
       <c r="A513"/>
       <c r="B513"/>
       <c r="F513"/>
@@ -72069,7 +72069,7 @@
       <c r="I513"/>
       <c r="J513"/>
     </row>
-    <row r="514" spans="1:10">
+    <row r="514" spans="1:10" ht="13.5">
       <c r="A514"/>
       <c r="B514"/>
       <c r="F514"/>
@@ -72078,7 +72078,7 @@
       <c r="I514"/>
       <c r="J514"/>
     </row>
-    <row r="515" spans="1:10">
+    <row r="515" spans="1:10" ht="13.5">
       <c r="A515"/>
       <c r="B515"/>
       <c r="F515"/>
@@ -72087,7 +72087,7 @@
       <c r="I515"/>
       <c r="J515"/>
     </row>
-    <row r="516" spans="1:10">
+    <row r="516" spans="1:10" ht="13.5">
       <c r="A516"/>
       <c r="B516"/>
       <c r="F516"/>
@@ -72096,7 +72096,7 @@
       <c r="I516"/>
       <c r="J516"/>
     </row>
-    <row r="517" spans="1:10">
+    <row r="517" spans="1:10" ht="13.5">
       <c r="A517"/>
       <c r="B517"/>
       <c r="F517"/>
@@ -72105,7 +72105,7 @@
       <c r="I517"/>
       <c r="J517"/>
     </row>
-    <row r="518" spans="1:10">
+    <row r="518" spans="1:10" ht="13.5">
       <c r="A518"/>
       <c r="B518"/>
       <c r="F518"/>
@@ -72114,7 +72114,7 @@
       <c r="I518"/>
       <c r="J518"/>
     </row>
-    <row r="519" spans="1:10">
+    <row r="519" spans="1:10" ht="13.5">
       <c r="A519"/>
       <c r="B519"/>
       <c r="F519"/>
@@ -72123,7 +72123,7 @@
       <c r="I519"/>
       <c r="J519"/>
     </row>
-    <row r="520" spans="1:10">
+    <row r="520" spans="1:10" ht="13.5">
       <c r="A520"/>
       <c r="B520"/>
       <c r="F520"/>
@@ -72132,7 +72132,7 @@
       <c r="I520"/>
       <c r="J520"/>
     </row>
-    <row r="521" spans="1:10">
+    <row r="521" spans="1:10" ht="13.5">
       <c r="A521"/>
       <c r="B521"/>
       <c r="F521"/>
@@ -72141,7 +72141,7 @@
       <c r="I521"/>
       <c r="J521"/>
     </row>
-    <row r="522" spans="1:10">
+    <row r="522" spans="1:10" ht="13.5">
       <c r="A522"/>
       <c r="B522"/>
       <c r="F522"/>
@@ -72150,7 +72150,7 @@
       <c r="I522"/>
       <c r="J522"/>
     </row>
-    <row r="523" spans="1:10">
+    <row r="523" spans="1:10" ht="13.5">
       <c r="A523"/>
       <c r="B523"/>
       <c r="F523"/>
@@ -72159,7 +72159,7 @@
       <c r="I523"/>
       <c r="J523"/>
     </row>
-    <row r="524" spans="1:10">
+    <row r="524" spans="1:10" ht="13.5">
       <c r="A524"/>
       <c r="B524"/>
       <c r="F524"/>
@@ -72168,7 +72168,7 @@
       <c r="I524"/>
       <c r="J524"/>
     </row>
-    <row r="525" spans="1:10">
+    <row r="525" spans="1:10" ht="13.5">
       <c r="A525"/>
       <c r="B525"/>
       <c r="F525"/>
@@ -72177,7 +72177,7 @@
       <c r="I525"/>
       <c r="J525"/>
     </row>
-    <row r="526" spans="1:10">
+    <row r="526" spans="1:10" ht="13.5">
       <c r="A526"/>
       <c r="B526"/>
       <c r="F526"/>
@@ -72186,7 +72186,7 @@
       <c r="I526"/>
       <c r="J526"/>
     </row>
-    <row r="527" spans="1:10">
+    <row r="527" spans="1:10" ht="13.5">
       <c r="A527"/>
       <c r="B527"/>
       <c r="F527"/>
@@ -72195,7 +72195,7 @@
       <c r="I527"/>
       <c r="J527"/>
     </row>
-    <row r="528" spans="1:10">
+    <row r="528" spans="1:10" ht="13.5">
       <c r="A528"/>
       <c r="B528"/>
       <c r="F528"/>
@@ -72204,7 +72204,7 @@
       <c r="I528"/>
       <c r="J528"/>
     </row>
-    <row r="529" spans="1:10">
+    <row r="529" spans="1:10" ht="13.5">
       <c r="A529"/>
       <c r="B529"/>
       <c r="F529"/>
@@ -72213,7 +72213,7 @@
       <c r="I529"/>
       <c r="J529"/>
     </row>
-    <row r="530" spans="1:10">
+    <row r="530" spans="1:10" ht="13.5">
       <c r="A530"/>
       <c r="B530"/>
       <c r="F530"/>
@@ -72222,7 +72222,7 @@
       <c r="I530"/>
       <c r="J530"/>
     </row>
-    <row r="531" spans="1:10">
+    <row r="531" spans="1:10" ht="13.5">
       <c r="A531"/>
       <c r="B531"/>
       <c r="F531"/>
@@ -72231,7 +72231,7 @@
       <c r="I531"/>
       <c r="J531"/>
     </row>
-    <row r="532" spans="1:10">
+    <row r="532" spans="1:10" ht="13.5">
       <c r="A532"/>
       <c r="B532"/>
       <c r="F532"/>
@@ -72240,7 +72240,7 @@
       <c r="I532"/>
       <c r="J532"/>
     </row>
-    <row r="533" spans="1:10">
+    <row r="533" spans="1:10" ht="13.5">
       <c r="A533"/>
       <c r="B533"/>
       <c r="F533"/>
@@ -72249,7 +72249,7 @@
       <c r="I533"/>
       <c r="J533"/>
     </row>
-    <row r="534" spans="1:10">
+    <row r="534" spans="1:10" ht="13.5">
       <c r="A534"/>
       <c r="B534"/>
       <c r="F534"/>
@@ -72258,7 +72258,7 @@
       <c r="I534"/>
       <c r="J534"/>
     </row>
-    <row r="535" spans="1:10">
+    <row r="535" spans="1:10" ht="13.5">
       <c r="A535"/>
       <c r="B535"/>
       <c r="F535"/>
@@ -72267,7 +72267,7 @@
       <c r="I535"/>
       <c r="J535"/>
     </row>
-    <row r="536" spans="1:10">
+    <row r="536" spans="1:10" ht="13.5">
       <c r="A536"/>
       <c r="B536"/>
       <c r="F536"/>
@@ -72276,7 +72276,7 @@
       <c r="I536"/>
       <c r="J536"/>
     </row>
-    <row r="537" spans="1:10">
+    <row r="537" spans="1:10" ht="13.5">
       <c r="A537"/>
       <c r="B537"/>
       <c r="F537"/>
@@ -72285,7 +72285,7 @@
       <c r="I537"/>
       <c r="J537"/>
     </row>
-    <row r="538" spans="1:10">
+    <row r="538" spans="1:10" ht="13.5">
       <c r="A538"/>
       <c r="B538"/>
       <c r="F538"/>
@@ -72294,7 +72294,7 @@
       <c r="I538"/>
       <c r="J538"/>
     </row>
-    <row r="539" spans="1:10">
+    <row r="539" spans="1:10" ht="13.5">
       <c r="A539"/>
       <c r="B539"/>
       <c r="F539"/>
@@ -72303,7 +72303,7 @@
       <c r="I539"/>
       <c r="J539"/>
     </row>
-    <row r="540" spans="1:10">
+    <row r="540" spans="1:10" ht="13.5">
       <c r="A540"/>
       <c r="B540"/>
       <c r="F540"/>
@@ -72312,7 +72312,7 @@
       <c r="I540"/>
       <c r="J540"/>
     </row>
-    <row r="541" spans="1:10">
+    <row r="541" spans="1:10" ht="13.5">
       <c r="A541"/>
       <c r="B541"/>
       <c r="F541"/>
@@ -72321,7 +72321,7 @@
       <c r="I541"/>
       <c r="J541"/>
     </row>
-    <row r="542" spans="1:10">
+    <row r="542" spans="1:10" ht="13.5">
       <c r="A542"/>
       <c r="B542"/>
       <c r="F542"/>
@@ -72330,7 +72330,7 @@
       <c r="I542"/>
       <c r="J542"/>
     </row>
-    <row r="543" spans="1:10">
+    <row r="543" spans="1:10" ht="13.5">
       <c r="A543"/>
       <c r="B543"/>
       <c r="F543"/>
@@ -72339,7 +72339,7 @@
       <c r="I543"/>
       <c r="J543"/>
     </row>
-    <row r="544" spans="1:10">
+    <row r="544" spans="1:10" ht="13.5">
       <c r="A544"/>
       <c r="B544"/>
       <c r="F544"/>
@@ -72348,7 +72348,7 @@
       <c r="I544"/>
       <c r="J544"/>
     </row>
-    <row r="545" spans="1:10">
+    <row r="545" spans="1:10" ht="13.5">
       <c r="A545"/>
       <c r="B545"/>
       <c r="F545"/>
@@ -72357,7 +72357,7 @@
       <c r="I545"/>
       <c r="J545"/>
     </row>
-    <row r="546" spans="1:10">
+    <row r="546" spans="1:10" ht="13.5">
       <c r="A546"/>
       <c r="B546"/>
       <c r="F546"/>
@@ -72366,7 +72366,7 @@
       <c r="I546"/>
       <c r="J546"/>
     </row>
-    <row r="547" spans="1:10">
+    <row r="547" spans="1:10" ht="13.5">
       <c r="A547"/>
       <c r="B547"/>
       <c r="F547"/>
@@ -72375,7 +72375,7 @@
       <c r="I547"/>
       <c r="J547"/>
     </row>
-    <row r="548" spans="1:10">
+    <row r="548" spans="1:10" ht="13.5">
       <c r="A548"/>
       <c r="B548"/>
       <c r="F548"/>
@@ -72384,7 +72384,7 @@
       <c r="I548"/>
       <c r="J548"/>
     </row>
-    <row r="549" spans="1:10">
+    <row r="549" spans="1:10" ht="13.5">
       <c r="A549"/>
       <c r="B549"/>
       <c r="F549"/>
@@ -72393,7 +72393,7 @@
       <c r="I549"/>
       <c r="J549"/>
     </row>
-    <row r="550" spans="1:10">
+    <row r="550" spans="1:10" ht="13.5">
       <c r="A550"/>
       <c r="B550"/>
       <c r="F550"/>
@@ -72402,7 +72402,7 @@
       <c r="I550"/>
       <c r="J550"/>
     </row>
-    <row r="551" spans="1:10">
+    <row r="551" spans="1:10" ht="13.5">
       <c r="A551"/>
       <c r="B551"/>
       <c r="F551"/>
@@ -72411,7 +72411,7 @@
       <c r="I551"/>
       <c r="J551"/>
     </row>
-    <row r="552" spans="1:10">
+    <row r="552" spans="1:10" ht="13.5">
       <c r="A552"/>
       <c r="B552"/>
       <c r="F552"/>
@@ -72429,11 +72429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J915"/>
   <sheetViews>
-    <sheetView topLeftCell="A355" workbookViewId="0">
-      <selection activeCell="G368" sqref="G368"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -87625,7 +87625,7 @@
       </c>
       <c r="H362" t="str">
         <f>""""&amp;'N3'!H362&amp;""""</f>
-        <v>"1"</v>
+        <v>"21"</v>
       </c>
       <c r="I362" t="str">
         <f>""""&amp;'N3'!I362&amp;""""</f>
